--- a/Validation/Validation dataset.xlsx
+++ b/Validation/Validation dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Desktop\Universidad\Q6\PE\Codis\Trend-Analytics\Validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F445EBB-27EE-46F5-9E09-D82092ECEC7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253F083F-A5A0-40CC-9094-F411741CC636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{51C03CC0-8AD4-4547-8F85-35A5BED8B5C2}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="10">
   <si>
     <t>POST</t>
   </si>
@@ -51,19 +51,37 @@
   </si>
   <si>
     <t>SILLA</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/88172105193610001/</t>
+  </si>
+  <si>
+    <t>CC0297J25</t>
+  </si>
+  <si>
+    <t>CC0855J25</t>
+  </si>
+  <si>
+    <t>CC1155JU25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -86,8 +104,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -405,11 +424,12 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="47.28515625" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" customWidth="1"/>
@@ -436,6 +456,18 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -534,5 +566,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Validation/Validation dataset.xlsx
+++ b/Validation/Validation dataset.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Desktop\Universidad\Q6\PE\Codis\Trend-Analytics\Validation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Desktop\Universidad\Q6\PE\Trend-Analytics\Validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253F083F-A5A0-40CC-9094-F411741CC636}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94EC6120-1BAA-4352-98DD-2BB13B76E5B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{51C03CC0-8AD4-4547-8F85-35A5BED8B5C2}"/>
+    <workbookView xWindow="4140" yWindow="1095" windowWidth="15375" windowHeight="10425" xr2:uid="{51C03CC0-8AD4-4547-8F85-35A5BED8B5C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="6">
   <si>
     <t>POST</t>
   </si>
@@ -51,18 +51,6 @@
   </si>
   <si>
     <t>SILLA</t>
-  </si>
-  <si>
-    <t>https://www.pinterest.es/pin/88172105193610001/</t>
-  </si>
-  <si>
-    <t>CC0297J25</t>
-  </si>
-  <si>
-    <t>CC0855J25</t>
-  </si>
-  <si>
-    <t>CC1155JU25</t>
   </si>
 </sst>
 </file>
@@ -424,7 +412,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,18 +444,9 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">

--- a/Validation/Validation dataset.xlsx
+++ b/Validation/Validation dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Desktop\Universidad\Q6\PE\Trend-Analytics\Validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94EC6120-1BAA-4352-98DD-2BB13B76E5B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0BDCD10-1891-49C3-A297-3D9E5F90B6DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4140" yWindow="1095" windowWidth="15375" windowHeight="10425" xr2:uid="{51C03CC0-8AD4-4547-8F85-35A5BED8B5C2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{51C03CC0-8AD4-4547-8F85-35A5BED8B5C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
   <si>
     <t>POST</t>
   </si>
@@ -51,13 +51,145 @@
   </si>
   <si>
     <t>SILLA</t>
+  </si>
+  <si>
+    <t>CC5189J03</t>
+  </si>
+  <si>
+    <t>CC5188J01</t>
+  </si>
+  <si>
+    <t>CC5209VD03</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/36169603248899796/</t>
+  </si>
+  <si>
+    <t>C417M01</t>
+  </si>
+  <si>
+    <t>CC1883AB15</t>
+  </si>
+  <si>
+    <t>CC1016J25</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/5559199532620525/</t>
+  </si>
+  <si>
+    <t>CC0934PK26</t>
+  </si>
+  <si>
+    <t>CC0253BG19</t>
+  </si>
+  <si>
+    <t>CC5212J01</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/790029959638531431/</t>
+  </si>
+  <si>
+    <t>CC2109MV12</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/1125968648538717/</t>
+  </si>
+  <si>
+    <t>YG0255CP46</t>
+  </si>
+  <si>
+    <t>CC6029KY15</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/166492517467087492/</t>
+  </si>
+  <si>
+    <t>CC2261GR39</t>
+  </si>
+  <si>
+    <t>CC2186VD14</t>
+  </si>
+  <si>
+    <t>CC5171VD14</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/1028861477343413151/</t>
+  </si>
+  <si>
+    <t>CC1155JU25</t>
+  </si>
+  <si>
+    <t>CC0297J25</t>
+  </si>
+  <si>
+    <t>CC0855J25</t>
+  </si>
+  <si>
+    <t>CC1884AB14</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/490188740702534914/</t>
+  </si>
+  <si>
+    <t>CC1980M42</t>
+  </si>
+  <si>
+    <t>CC5201M01</t>
+  </si>
+  <si>
+    <t>YG0253J01</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/777715429411289454/</t>
+  </si>
+  <si>
+    <t>CC1011J15</t>
+  </si>
+  <si>
+    <t>CC5117J01</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/790100328387898906/</t>
+  </si>
+  <si>
+    <t>CC0555S15</t>
+  </si>
+  <si>
+    <t>CC1344AB15</t>
+  </si>
+  <si>
+    <t>CC1882AB03</t>
+  </si>
+  <si>
+    <t>C639J14</t>
+  </si>
+  <si>
+    <t>CC0986PK03</t>
+  </si>
+  <si>
+    <t>CC0252VD03</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/582512533057598524/</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/699465385887719341/</t>
+  </si>
+  <si>
+    <t>CC0826PN36</t>
+  </si>
+  <si>
+    <t>CC0839S01</t>
+  </si>
+  <si>
+    <t>CC1230S05</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,6 +202,14 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -89,14 +229,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -412,12 +557,12 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="47.28515625" customWidth="1"/>
+    <col min="2" max="2" width="49" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" customWidth="1"/>
@@ -444,59 +589,188 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
+      <c r="B4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
+      <c r="B7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
+      <c r="B8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
+      <c r="B9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
+      <c r="B10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
+      <c r="B11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
+      <c r="B12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -544,7 +818,20 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{DEF8A9D3-0056-4134-864B-D848E56FA165}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{CA9675EC-3C35-49E7-8323-4FDB0BE73E6F}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{4BC6FBD9-088E-4EDE-9B9F-BA038B1224DC}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{3D87718A-D89B-4FC6-BEE3-4F0B040AF669}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{C2B177E8-0A61-4E45-9785-860176C40435}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{D48CD1DE-1C04-46EB-9FE9-FA843C13DE5E}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{2F2FF942-AE1E-47F6-91FF-3F83D03386B8}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{FFD471BB-1AA1-4572-A66E-008BCE7A0DAE}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{BB6E61A5-D08C-4318-ACA4-0DB31CA63414}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{A4B1E118-0CF5-467B-A0F2-4AEA46D61A1F}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{3B0AF43C-EA15-4226-BFE5-72F5D017B9C0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId12"/>
 </worksheet>
 </file>
--- a/Validation/Validation dataset.xlsx
+++ b/Validation/Validation dataset.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Desktop\Universidad\Q6\PE\Trend-Analytics\Validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0BDCD10-1891-49C3-A297-3D9E5F90B6DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F5E8B4-A1C9-4E00-AFE7-B06F892A8374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{51C03CC0-8AD4-4547-8F85-35A5BED8B5C2}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="198">
   <si>
     <t>POST</t>
   </si>
@@ -183,6 +183,450 @@
   </si>
   <si>
     <t>CC1230S05</t>
+  </si>
+  <si>
+    <t>C423M01</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/748934613042512280/</t>
+  </si>
+  <si>
+    <t>CC2108MV12</t>
+  </si>
+  <si>
+    <t>CC1979M33</t>
+  </si>
+  <si>
+    <t>CC2160M46</t>
+  </si>
+  <si>
+    <t>CC1724M46</t>
+  </si>
+  <si>
+    <t>YG0253J12</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/23432860591292942/</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/153544668536813210/</t>
+  </si>
+  <si>
+    <t>CC5201M46</t>
+  </si>
+  <si>
+    <t>CC1344AB12</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/553239135484114038/</t>
+  </si>
+  <si>
+    <t>CC5080J12</t>
+  </si>
+  <si>
+    <t>CC2228J11</t>
+  </si>
+  <si>
+    <t>CC0219M46</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/11118330321576248/</t>
+  </si>
+  <si>
+    <t>CC0717S12</t>
+  </si>
+  <si>
+    <t>CC0436J33</t>
+  </si>
+  <si>
+    <t>CC6068J12</t>
+  </si>
+  <si>
+    <t>CC5106J46</t>
+  </si>
+  <si>
+    <t>CC5078J12</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/612419249335336015/</t>
+  </si>
+  <si>
+    <t>C489L05</t>
+  </si>
+  <si>
+    <t>C416M46</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/11962755252133171/</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/281543714121843/</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/5066618321665147/</t>
+  </si>
+  <si>
+    <t>C934M46</t>
+  </si>
+  <si>
+    <t>SOFA</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/1134555331096361986/</t>
+  </si>
+  <si>
+    <t>S805_30_PS33</t>
+  </si>
+  <si>
+    <t>S800_30_SO33</t>
+  </si>
+  <si>
+    <t>S718GC12</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/90846117473079391/</t>
+  </si>
+  <si>
+    <t>S490PT02</t>
+  </si>
+  <si>
+    <t>S547JU80</t>
+  </si>
+  <si>
+    <t>S473CH02</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/1060034831014049156/</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/400961173086033649/</t>
+  </si>
+  <si>
+    <t>CC1738J12</t>
+  </si>
+  <si>
+    <t>CC6054J11</t>
+  </si>
+  <si>
+    <t>CC6070J12</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/14918242506938169/</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/399342691968534097/</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/28710516365632280/</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/136656169933658357/</t>
+  </si>
+  <si>
+    <t>S575LN15</t>
+  </si>
+  <si>
+    <t>S472CH14</t>
+  </si>
+  <si>
+    <t>S754MN14</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/157907530675775193/</t>
+  </si>
+  <si>
+    <t>S805_40D_PS33</t>
+  </si>
+  <si>
+    <t>S800_40_SO33</t>
+  </si>
+  <si>
+    <t>S581PK03</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/365284219787021147/</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/1003176885717344464/</t>
+  </si>
+  <si>
+    <t>S489PK03</t>
+  </si>
+  <si>
+    <t>S547PK03</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/831758624943574211/</t>
+  </si>
+  <si>
+    <t>S574GR39</t>
+  </si>
+  <si>
+    <t>S663JU03</t>
+  </si>
+  <si>
+    <t>S575GR39</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/304626362303295363/</t>
+  </si>
+  <si>
+    <t>S793_21_LO12</t>
+  </si>
+  <si>
+    <t>S472CH12</t>
+  </si>
+  <si>
+    <t>S571GR39</t>
+  </si>
+  <si>
+    <t>S639M46</t>
+  </si>
+  <si>
+    <t>S794R10</t>
+  </si>
+  <si>
+    <t>CC2097J10</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/338825571976202434/</t>
+  </si>
+  <si>
+    <t>S756MN14</t>
+  </si>
+  <si>
+    <t>S685LN15</t>
+  </si>
+  <si>
+    <t>S801_53_GR39</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/829295718895041122/</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/425801339778415333/</t>
+  </si>
+  <si>
+    <t>S574SN81</t>
+  </si>
+  <si>
+    <t>S575SN81</t>
+  </si>
+  <si>
+    <t>S481LD81</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/55661745385960591/</t>
+  </si>
+  <si>
+    <t>S664PK03</t>
+  </si>
+  <si>
+    <t>S492CH14</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/36239971991066224/</t>
+  </si>
+  <si>
+    <t>S793_41_LO12</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/122371314865203246/</t>
+  </si>
+  <si>
+    <t>S664JU80</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/19632948368877401/</t>
+  </si>
+  <si>
+    <t>S757MN14</t>
+  </si>
+  <si>
+    <t>MESA</t>
+  </si>
+  <si>
+    <t>CC5180C01</t>
+  </si>
+  <si>
+    <t>C747K09</t>
+  </si>
+  <si>
+    <t>C436K09</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/12384967717640363/</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/584834701617767260/</t>
+  </si>
+  <si>
+    <t>C747M90</t>
+  </si>
+  <si>
+    <t>CC0954M43</t>
+  </si>
+  <si>
+    <t>CC1047M90</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/288300813656404087/</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/1003176885717344415/</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/20477373295115874/</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/99431104270421323/</t>
+  </si>
+  <si>
+    <t>CC1960M33</t>
+  </si>
+  <si>
+    <t>Y008L05</t>
+  </si>
+  <si>
+    <t>CC0180C05</t>
+  </si>
+  <si>
+    <t>CC6020M05</t>
+  </si>
+  <si>
+    <t>CC0531L05</t>
+  </si>
+  <si>
+    <t>CC2258PR05</t>
+  </si>
+  <si>
+    <t>CC0006M40</t>
+  </si>
+  <si>
+    <t>C747M40</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/712061391091811099/</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/11470174042025746/</t>
+  </si>
+  <si>
+    <t>C613M46</t>
+  </si>
+  <si>
+    <t>CC6052M46</t>
+  </si>
+  <si>
+    <t>CC0014M40</t>
+  </si>
+  <si>
+    <t>CC1841PR05</t>
+  </si>
+  <si>
+    <t>CC1104PR05</t>
+  </si>
+  <si>
+    <t>C796M33</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/35888128274569815/</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/225180050110799236/</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/953426183584474990/</t>
+  </si>
+  <si>
+    <t>C747M33</t>
+  </si>
+  <si>
+    <t>CC1974M40</t>
+  </si>
+  <si>
+    <t>CC2172M46</t>
+  </si>
+  <si>
+    <t>CC2174M46</t>
+  </si>
+  <si>
+    <t>CC6119M47</t>
+  </si>
+  <si>
+    <t>C473L05</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/859976491347951437/</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/584834701618702835/</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/863002347353736598/</t>
+  </si>
+  <si>
+    <t>CC1073M46</t>
+  </si>
+  <si>
+    <t>CC1726M46</t>
+  </si>
+  <si>
+    <t>CC0095L05</t>
+  </si>
+  <si>
+    <t>Y007L05</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/914862414673085/</t>
+  </si>
+  <si>
+    <t>CC6005M43</t>
+  </si>
+  <si>
+    <t>C366M33</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/584834701619844420/</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/859976491347780998/</t>
+  </si>
+  <si>
+    <t>C994M33</t>
+  </si>
+  <si>
+    <t>CC5162M43</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/859976491350506097/</t>
+  </si>
+  <si>
+    <t>CC1964M03</t>
+  </si>
+  <si>
+    <t>MH009M09_</t>
+  </si>
+  <si>
+    <t>CC1974M41</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/3518505950630043/</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/778911698063022959/</t>
+  </si>
+  <si>
+    <t>DI011M46</t>
+  </si>
+  <si>
+    <t>CC0092L05</t>
+  </si>
+  <si>
+    <t>CC0741L05</t>
+  </si>
+  <si>
+    <t>C080C07</t>
   </si>
 </sst>
 </file>
@@ -233,12 +677,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -554,10 +999,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ECB3A60-1523-433E-9BFD-A546DCB0940A}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,45 +1221,833 @@
       <c r="A13" t="s">
         <v>5</v>
       </c>
+      <c r="B13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
+      <c r="B14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
+      <c r="B15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>5</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" t="s">
+        <v>85</v>
+      </c>
+      <c r="E26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" t="s">
+        <v>97</v>
+      </c>
+      <c r="E29" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" t="s">
+        <v>101</v>
+      </c>
+      <c r="E30" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" t="s">
+        <v>101</v>
+      </c>
+      <c r="E31" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" t="s">
+        <v>106</v>
+      </c>
+      <c r="E32" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C33" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" t="s">
+        <v>109</v>
+      </c>
+      <c r="E33" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" t="s">
+        <v>113</v>
+      </c>
+      <c r="E34" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" t="s">
+        <v>115</v>
+      </c>
+      <c r="D35" t="s">
+        <v>116</v>
+      </c>
+      <c r="E35" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" t="s">
+        <v>119</v>
+      </c>
+      <c r="D36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E36" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C37" t="s">
+        <v>124</v>
+      </c>
+      <c r="D37" t="s">
+        <v>125</v>
+      </c>
+      <c r="E37" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C38" t="s">
+        <v>101</v>
+      </c>
+      <c r="D38" t="s">
+        <v>128</v>
+      </c>
+      <c r="E38" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39" t="s">
+        <v>101</v>
+      </c>
+      <c r="E39" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C40" t="s">
+        <v>129</v>
+      </c>
+      <c r="D40" t="s">
+        <v>133</v>
+      </c>
+      <c r="E40" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C41" t="s">
+        <v>129</v>
+      </c>
+      <c r="D41" t="s">
+        <v>96</v>
+      </c>
+      <c r="E41" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>136</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C42" t="s">
+        <v>137</v>
+      </c>
+      <c r="D42" t="s">
+        <v>138</v>
+      </c>
+      <c r="E42" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>136</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C43" t="s">
+        <v>142</v>
+      </c>
+      <c r="D43" t="s">
+        <v>143</v>
+      </c>
+      <c r="E43" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>136</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C44" t="s">
+        <v>149</v>
+      </c>
+      <c r="D44" t="s">
+        <v>150</v>
+      </c>
+      <c r="E44" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>136</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C45" t="s">
+        <v>152</v>
+      </c>
+      <c r="D45" t="s">
+        <v>153</v>
+      </c>
+      <c r="E45" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>136</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C46" t="s">
+        <v>149</v>
+      </c>
+      <c r="D46" t="s">
+        <v>155</v>
+      </c>
+      <c r="E46" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>136</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C47" t="s">
+        <v>159</v>
+      </c>
+      <c r="D47" t="s">
+        <v>160</v>
+      </c>
+      <c r="E47" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>136</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C48" t="s">
+        <v>162</v>
+      </c>
+      <c r="D48" t="s">
+        <v>153</v>
+      </c>
+      <c r="E48" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>136</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C49" t="s">
+        <v>143</v>
+      </c>
+      <c r="D49" t="s">
+        <v>142</v>
+      </c>
+      <c r="E49" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>136</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C50" t="s">
+        <v>143</v>
+      </c>
+      <c r="D50" t="s">
+        <v>168</v>
+      </c>
+      <c r="E50" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>136</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C51" t="s">
+        <v>152</v>
+      </c>
+      <c r="D51" t="s">
+        <v>154</v>
+      </c>
+      <c r="E51" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>136</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C52" t="s">
+        <v>170</v>
+      </c>
+      <c r="D52" t="s">
+        <v>171</v>
+      </c>
+      <c r="E52" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>136</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C53" t="s">
+        <v>177</v>
+      </c>
+      <c r="D53" t="s">
+        <v>169</v>
+      </c>
+      <c r="E53" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>136</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C54" t="s">
+        <v>182</v>
+      </c>
+      <c r="D54" t="s">
+        <v>183</v>
+      </c>
+      <c r="E54" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>136</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C55" t="s">
+        <v>150</v>
+      </c>
+      <c r="D55" t="s">
+        <v>179</v>
+      </c>
+      <c r="E55" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>136</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C56" t="s">
+        <v>189</v>
+      </c>
+      <c r="D56" t="s">
+        <v>190</v>
+      </c>
+      <c r="E56" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>136</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C57" t="s">
+        <v>156</v>
+      </c>
+      <c r="D57" t="s">
+        <v>187</v>
+      </c>
+      <c r="E57" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>136</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C58" t="s">
+        <v>180</v>
+      </c>
+      <c r="D58" t="s">
+        <v>150</v>
+      </c>
+      <c r="E58" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>136</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C59" t="s">
+        <v>180</v>
+      </c>
+      <c r="D59" t="s">
+        <v>150</v>
+      </c>
+      <c r="E59" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>136</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C60" t="s">
+        <v>194</v>
+      </c>
+      <c r="D60" t="s">
+        <v>168</v>
+      </c>
+      <c r="E60" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>136</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C61" t="s">
+        <v>195</v>
+      </c>
+      <c r="D61" t="s">
+        <v>196</v>
+      </c>
+      <c r="E61" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -830,8 +2063,57 @@
     <hyperlink ref="B10" r:id="rId9" xr:uid="{BB6E61A5-D08C-4318-ACA4-0DB31CA63414}"/>
     <hyperlink ref="B11" r:id="rId10" xr:uid="{A4B1E118-0CF5-467B-A0F2-4AEA46D61A1F}"/>
     <hyperlink ref="B12" r:id="rId11" xr:uid="{3B0AF43C-EA15-4226-BFE5-72F5D017B9C0}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{A2870382-BFF6-44F3-BA8D-055ACEE10EED}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{E61816DB-E212-4F8A-A116-1C697832E00E}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{7B39BB7E-33BF-4034-A1E3-752C34FCE1AD}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{D2CBA475-4D70-4DEF-907F-B458AF351C95}"/>
+    <hyperlink ref="B17" r:id="rId16" xr:uid="{66D92510-3031-4900-9676-EA2A379EC859}"/>
+    <hyperlink ref="B18" r:id="rId17" xr:uid="{DCD33AF0-1418-4E40-9477-F99C8D40A392}"/>
+    <hyperlink ref="B19" r:id="rId18" xr:uid="{70E3FB13-E24A-4245-BE69-9F69B7AE6DB9}"/>
+    <hyperlink ref="B20" r:id="rId19" xr:uid="{A34778BA-644A-4203-9DC0-F68E0AD0C9AF}"/>
+    <hyperlink ref="B21" r:id="rId20" xr:uid="{9C0ABE1E-1E90-4B66-9F02-FF193174263D}"/>
+    <hyperlink ref="B22" r:id="rId21" xr:uid="{A1BF4B38-CD81-4EE4-8B78-77A663023E52}"/>
+    <hyperlink ref="B23" r:id="rId22" xr:uid="{A771048C-AEFD-4B9E-B4CC-181D8D9DD7CC}"/>
+    <hyperlink ref="B24" r:id="rId23" xr:uid="{E03128A6-BBDB-471C-A718-E862EC5652EE}"/>
+    <hyperlink ref="B25" r:id="rId24" xr:uid="{11489051-22AD-4CA7-8712-C1F7AAF489C3}"/>
+    <hyperlink ref="B26" r:id="rId25" xr:uid="{4B9E3347-0892-49BE-BE2E-AB33A3503865}"/>
+    <hyperlink ref="B27" r:id="rId26" xr:uid="{CB51DC2A-1100-455C-801D-B8D169285258}"/>
+    <hyperlink ref="B28" r:id="rId27" xr:uid="{F206DB74-D36D-4C69-8D95-3DDD6B331295}"/>
+    <hyperlink ref="B29" r:id="rId28" xr:uid="{1C4F39CB-D4D1-4BCF-9ACB-09012F54821D}"/>
+    <hyperlink ref="B30" r:id="rId29" xr:uid="{19B33805-1C26-4EB9-9154-D3E642F8BCEC}"/>
+    <hyperlink ref="B31" r:id="rId30" xr:uid="{9FBE2A55-C2E4-49D2-887E-77CE502C3545}"/>
+    <hyperlink ref="B32" r:id="rId31" xr:uid="{48AE9680-04CD-4BB4-ADD0-0BEE90A3366B}"/>
+    <hyperlink ref="B33" r:id="rId32" xr:uid="{19BE7FBD-9FC7-47F9-B63F-70B014765B87}"/>
+    <hyperlink ref="B34" r:id="rId33" xr:uid="{4FCC1423-6DD4-477B-BED8-239545DBF4AC}"/>
+    <hyperlink ref="B35" r:id="rId34" xr:uid="{121355AA-E753-4F92-B633-03B722AEEDD3}"/>
+    <hyperlink ref="B36" r:id="rId35" xr:uid="{7A2ED472-F7FB-4718-A3B0-B073CB671AFF}"/>
+    <hyperlink ref="B37" r:id="rId36" xr:uid="{1766D357-4974-4185-88EF-A0C4E33F907C}"/>
+    <hyperlink ref="B38" r:id="rId37" xr:uid="{118B2312-44E4-4AA8-8CAD-BA15549A59F8}"/>
+    <hyperlink ref="B39" r:id="rId38" xr:uid="{D6283C44-293C-4BA8-939B-4D77B472FC0B}"/>
+    <hyperlink ref="B40" r:id="rId39" xr:uid="{465E6DC2-E576-450F-9996-9511A596760A}"/>
+    <hyperlink ref="B41" r:id="rId40" xr:uid="{0C070B49-8742-4679-AE50-0F075478987B}"/>
+    <hyperlink ref="B42" r:id="rId41" xr:uid="{FA63D255-0E1F-4507-A57F-977667C2C3B1}"/>
+    <hyperlink ref="B43" r:id="rId42" xr:uid="{D3B161B1-5D83-4B4B-8D3F-9D377DB9CBAD}"/>
+    <hyperlink ref="B44" r:id="rId43" xr:uid="{769C2940-7FD9-4A1D-951E-6686A32C4E33}"/>
+    <hyperlink ref="B45" r:id="rId44" xr:uid="{F1E83265-565E-4E16-AD80-7027E470FD46}"/>
+    <hyperlink ref="B46" r:id="rId45" xr:uid="{78051F63-D785-477B-967E-6D4E2FE22D9A}"/>
+    <hyperlink ref="B47" r:id="rId46" xr:uid="{7800D2D6-138B-4A8A-BA43-E2F44A0C75EE}"/>
+    <hyperlink ref="B49" r:id="rId47" xr:uid="{A0740B06-6F95-4417-BC05-59AD22017054}"/>
+    <hyperlink ref="B48" r:id="rId48" xr:uid="{42315209-BE0D-4A70-8832-EC01C5D63B35}"/>
+    <hyperlink ref="B52" r:id="rId49" xr:uid="{D6B9CC11-494C-4C3E-AB17-89B1F7B06FDE}"/>
+    <hyperlink ref="B50" r:id="rId50" xr:uid="{19626C51-2ED1-4315-9BF3-76BFD4985C91}"/>
+    <hyperlink ref="B51" r:id="rId51" xr:uid="{E48C7BBE-4249-496E-948F-075485290D4D}"/>
+    <hyperlink ref="B55" r:id="rId52" xr:uid="{85A5D940-9434-48AB-9AFA-232747D80058}"/>
+    <hyperlink ref="B54" r:id="rId53" xr:uid="{6AC821BC-72C2-4235-9756-1A5029F8285D}"/>
+    <hyperlink ref="B53" r:id="rId54" xr:uid="{9FDD7CD5-930E-48AD-AE68-AD3E1E452CCD}"/>
+    <hyperlink ref="B56" r:id="rId55" xr:uid="{403917A3-0157-4631-83FD-76E3B23727E8}"/>
+    <hyperlink ref="B57" r:id="rId56" xr:uid="{0B550183-1004-4B62-93A5-B3D98AF22141}"/>
+    <hyperlink ref="B58" r:id="rId57" xr:uid="{6944FF4D-4477-477B-A2E9-927C560368B8}"/>
+    <hyperlink ref="B59" r:id="rId58" xr:uid="{59B1F910-04D7-433C-9D69-48A9E043EC5E}"/>
+    <hyperlink ref="B61" r:id="rId59" xr:uid="{0B50D2AD-BC03-481B-B6EF-A22BB18A769E}"/>
+    <hyperlink ref="B60" r:id="rId60" xr:uid="{227A4CAC-483B-46CE-BAC8-8B87FCE9A85C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId61"/>
 </worksheet>
 </file>
--- a/Validation/Validation dataset.xlsx
+++ b/Validation/Validation dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Desktop\Universidad\Q6\PE\Trend-Analytics\Validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F5E8B4-A1C9-4E00-AFE7-B06F892A8374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B491226B-DB49-49E2-BE8D-149A8E2D2762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{51C03CC0-8AD4-4547-8F85-35A5BED8B5C2}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="466">
   <si>
     <t>POST</t>
   </si>
@@ -627,6 +627,810 @@
   </si>
   <si>
     <t>C080C07</t>
+  </si>
+  <si>
+    <t>TABURETE</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/236157574202099205/</t>
+  </si>
+  <si>
+    <t>CC5079J03</t>
+  </si>
+  <si>
+    <t>CC0379CWQ11</t>
+  </si>
+  <si>
+    <t>CC0838R02</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/9570217949359850/</t>
+  </si>
+  <si>
+    <t>CC1025J12</t>
+  </si>
+  <si>
+    <t>CC2111MV12</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/396598310945766962/</t>
+  </si>
+  <si>
+    <t>CC0825U10</t>
+  </si>
+  <si>
+    <t>CC0912U10H</t>
+  </si>
+  <si>
+    <t>CC1807PK81</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/1150388298539164023/</t>
+  </si>
+  <si>
+    <t>C804R02</t>
+  </si>
+  <si>
+    <t>CC0045R01</t>
+  </si>
+  <si>
+    <t>CC0836R02</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/77405687335305946/</t>
+  </si>
+  <si>
+    <t>CC0063J05</t>
+  </si>
+  <si>
+    <t>CC0837R02</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/761038037035758834/</t>
+  </si>
+  <si>
+    <t>CC5225J01</t>
+  </si>
+  <si>
+    <t>CC1221S02H</t>
+  </si>
+  <si>
+    <t>CC5116J01</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/1071504936315260489/</t>
+  </si>
+  <si>
+    <t>CC1948P10</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/120049146309000569/</t>
+  </si>
+  <si>
+    <t>CC5079J12</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/1132796112493600971/</t>
+  </si>
+  <si>
+    <t>CC3015U01</t>
+  </si>
+  <si>
+    <t>CC0637UE02</t>
+  </si>
+  <si>
+    <t>C052U05</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/1150810511004606181/</t>
+  </si>
+  <si>
+    <t>CC3015U02</t>
+  </si>
+  <si>
+    <t>CC0637UE03</t>
+  </si>
+  <si>
+    <t>C052U06</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/199636195982718216/</t>
+  </si>
+  <si>
+    <t>C061U01</t>
+  </si>
+  <si>
+    <t>CC5115J01</t>
+  </si>
+  <si>
+    <t>CC1221S02</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/978618194001760626/</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/699465385887719403/</t>
+  </si>
+  <si>
+    <t>CC0309UE09</t>
+  </si>
+  <si>
+    <t>CC0254UE02</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/523684262938998664/</t>
+  </si>
+  <si>
+    <t>CC0276J15</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/735634920383492917/</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/636063147379929796/</t>
+  </si>
+  <si>
+    <t>CC0749UE11</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/1083608360314594081/</t>
+  </si>
+  <si>
+    <t>CC1081J03</t>
+  </si>
+  <si>
+    <t>CC3001J33</t>
+  </si>
+  <si>
+    <t>CC1221S05</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/43347215155349255/</t>
+  </si>
+  <si>
+    <t>CC1081U10H</t>
+  </si>
+  <si>
+    <t>CC0312UE86</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/963137070281850220/</t>
+  </si>
+  <si>
+    <t>CC2112MV12</t>
+  </si>
+  <si>
+    <t>ALFOMBRA</t>
+  </si>
+  <si>
+    <t>AA1087J14</t>
+  </si>
+  <si>
+    <t>AA7133J03</t>
+  </si>
+  <si>
+    <t>AA5097J03</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/659425570451117909/</t>
+  </si>
+  <si>
+    <t>AA8704J09</t>
+  </si>
+  <si>
+    <t>AA5128J35</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/1132233162543578214/</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/765963849131004685/</t>
+  </si>
+  <si>
+    <t>AA8226J03</t>
+  </si>
+  <si>
+    <t>AA7447J19</t>
+  </si>
+  <si>
+    <t>AA8224J29</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/1120692688495473944/</t>
+  </si>
+  <si>
+    <t>LH0634J12</t>
+  </si>
+  <si>
+    <t>AA5118J03</t>
+  </si>
+  <si>
+    <t>AA8700J12</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/297448750402557035/</t>
+  </si>
+  <si>
+    <t>AA7001J12</t>
+  </si>
+  <si>
+    <t>AA7362J12</t>
+  </si>
+  <si>
+    <t>AA7049J60</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/502573639677632527/</t>
+  </si>
+  <si>
+    <t>AA7153J03</t>
+  </si>
+  <si>
+    <t>AA7142J82</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/297448750402557036/</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/891149844991072660/</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/1120692688496916425/</t>
+  </si>
+  <si>
+    <t>AA7441J12</t>
+  </si>
+  <si>
+    <t>AA7048J33</t>
+  </si>
+  <si>
+    <t>AA7050J12</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/953918764797149771/</t>
+  </si>
+  <si>
+    <t>AA1256FN35</t>
+  </si>
+  <si>
+    <t>IT0336J35</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/659425570451659415/</t>
+  </si>
+  <si>
+    <t>AA6238J60</t>
+  </si>
+  <si>
+    <t>AA7151J01</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/1149051292401560273/</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/1132233162543130181/</t>
+  </si>
+  <si>
+    <t>AA7135J09</t>
+  </si>
+  <si>
+    <t>AA7149J10</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/294845106863064239/</t>
+  </si>
+  <si>
+    <t>LH0622J35</t>
+  </si>
+  <si>
+    <t>AA1568J06</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/788974428469685244/</t>
+  </si>
+  <si>
+    <t>AA7051J35</t>
+  </si>
+  <si>
+    <t>AA5129J35</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/43558321386146140/</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/7529524367988983/</t>
+  </si>
+  <si>
+    <t>AA7151J12</t>
+  </si>
+  <si>
+    <t>AA6238J12</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/886083295408186124/</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/886083295406020919/</t>
+  </si>
+  <si>
+    <t>AA7131J12</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/886083295406940888/</t>
+  </si>
+  <si>
+    <t>AA6270J86</t>
+  </si>
+  <si>
+    <t>AA6239J12</t>
+  </si>
+  <si>
+    <t>AA1101FN35</t>
+  </si>
+  <si>
+    <t>LAMPARA</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/892838694849812437/</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/554646510371184341/</t>
+  </si>
+  <si>
+    <t>AB0388R53</t>
+  </si>
+  <si>
+    <t>AA0131R01</t>
+  </si>
+  <si>
+    <t>AB0237R05</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/154740937193240888/</t>
+  </si>
+  <si>
+    <t>AA6525M01</t>
+  </si>
+  <si>
+    <t>AA5852R53</t>
+  </si>
+  <si>
+    <t>AA2014R01</t>
+  </si>
+  <si>
+    <t>AA4103R05</t>
+  </si>
+  <si>
+    <t>AB0052</t>
+  </si>
+  <si>
+    <t>AA6456R53</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/287948969914915290/</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/692709986447102350/</t>
+  </si>
+  <si>
+    <t>AA3888R01</t>
+  </si>
+  <si>
+    <t>AA6461R01</t>
+  </si>
+  <si>
+    <t>AA0013R01</t>
+  </si>
+  <si>
+    <t>IT0227J05</t>
+  </si>
+  <si>
+    <t>AB0154FN46</t>
+  </si>
+  <si>
+    <t>AA8745FN46</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/556827941437278196/</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/374009944066888896/</t>
+  </si>
+  <si>
+    <t>AB0164FN46</t>
+  </si>
+  <si>
+    <t>AB0159FN46</t>
+  </si>
+  <si>
+    <t>AA8797FN46</t>
+  </si>
+  <si>
+    <t>AA8791J39</t>
+  </si>
+  <si>
+    <t>AA5254M46</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/357543657927360208/</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/70437484351774/</t>
+  </si>
+  <si>
+    <t>A102FN39</t>
+  </si>
+  <si>
+    <t>EA331FN39</t>
+  </si>
+  <si>
+    <t>A482J05</t>
+  </si>
+  <si>
+    <t>AA2973C15</t>
+  </si>
+  <si>
+    <t>AA0025C29</t>
+  </si>
+  <si>
+    <t>AA8799C07</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/449937819031957602/</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/976929344161474487/</t>
+  </si>
+  <si>
+    <t>AB0160FN46</t>
+  </si>
+  <si>
+    <t>AA0733M46</t>
+  </si>
+  <si>
+    <t>AA8808C07</t>
+  </si>
+  <si>
+    <t>AA0734M46</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/572097958924645131/</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/414471971965950069/</t>
+  </si>
+  <si>
+    <t>AA5724FN46</t>
+  </si>
+  <si>
+    <t>AA8748FN46</t>
+  </si>
+  <si>
+    <t>AA8781FN46</t>
+  </si>
+  <si>
+    <t>AA5836R53</t>
+  </si>
+  <si>
+    <t>AA4299R35</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/24629129202168629/</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/732960908113645001/</t>
+  </si>
+  <si>
+    <t>AA8745J01</t>
+  </si>
+  <si>
+    <t>A177F10</t>
+  </si>
+  <si>
+    <t>AB0528FN46</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/84301824265809168/</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/8303580554675196/</t>
+  </si>
+  <si>
+    <t>AA8798J33</t>
+  </si>
+  <si>
+    <t>AA8778J33</t>
+  </si>
+  <si>
+    <t>EA326FN39</t>
+  </si>
+  <si>
+    <t>LH0614FN46</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/365213851043240919/</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/620019073711390137/</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/365213851043199857/</t>
+  </si>
+  <si>
+    <t>AA8785FN46</t>
+  </si>
+  <si>
+    <t>AA2952R35</t>
+  </si>
+  <si>
+    <t>AA4288R25</t>
+  </si>
+  <si>
+    <t>ESPEJO</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/68117013104675986/</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/211174974407638/</t>
+  </si>
+  <si>
+    <t>AA7928M41</t>
+  </si>
+  <si>
+    <t>AA7930M46</t>
+  </si>
+  <si>
+    <t>AA7929M46</t>
+  </si>
+  <si>
+    <t>AA7928M46</t>
+  </si>
+  <si>
+    <t>AA7926M46</t>
+  </si>
+  <si>
+    <t>AA7926M41</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/32721534785163018/</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/268527196524132298/</t>
+  </si>
+  <si>
+    <t>IT0475M83</t>
+  </si>
+  <si>
+    <t>YG0163R01</t>
+  </si>
+  <si>
+    <t>AA7929M42</t>
+  </si>
+  <si>
+    <t>IT0474M83</t>
+  </si>
+  <si>
+    <t>AA2547R83</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/4011087161131611/</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/29132728829682349/</t>
+  </si>
+  <si>
+    <t>AA2525M41</t>
+  </si>
+  <si>
+    <t>AA7809C37</t>
+  </si>
+  <si>
+    <t>AA7988M46</t>
+  </si>
+  <si>
+    <t>AA7896R01</t>
+  </si>
+  <si>
+    <t>AA7892R83</t>
+  </si>
+  <si>
+    <t>AA6206M12</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/409757266103035293/</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/385550418107390810/</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/150800287513806815/</t>
+  </si>
+  <si>
+    <t>LH0611FN46</t>
+  </si>
+  <si>
+    <t>AA5720FN46</t>
+  </si>
+  <si>
+    <t>AA5086FN46</t>
+  </si>
+  <si>
+    <t>AA2519M46</t>
+  </si>
+  <si>
+    <t>AA4614M87</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/927249010752025418/</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/5911043254961165/</t>
+  </si>
+  <si>
+    <t>AA7930M41</t>
+  </si>
+  <si>
+    <t>AA6480R01</t>
+  </si>
+  <si>
+    <t>AA5030M46</t>
+  </si>
+  <si>
+    <t>AA7922M27</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/13510867623054835/</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/866802259503220492/</t>
+  </si>
+  <si>
+    <t>AA7925M46</t>
+  </si>
+  <si>
+    <t>AA6123M87</t>
+  </si>
+  <si>
+    <t>AA7925M42</t>
+  </si>
+  <si>
+    <t>AA7927S05</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/2111131067568080/</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/447052700506085687/</t>
+  </si>
+  <si>
+    <t>AA4242M46</t>
+  </si>
+  <si>
+    <t>AA7989M46</t>
+  </si>
+  <si>
+    <t>AA1278M05</t>
+  </si>
+  <si>
+    <t>AA0331R54</t>
+  </si>
+  <si>
+    <t>AA0137R83</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/352406739602274826/</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/1013380353625442946/</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/28499410132974648/</t>
+  </si>
+  <si>
+    <t>SN006M47</t>
+  </si>
+  <si>
+    <t>AB0139M46</t>
+  </si>
+  <si>
+    <t>AB0137M46</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/598275131756782074/</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/717057571921905763/</t>
+  </si>
+  <si>
+    <t>COJÍN</t>
+  </si>
+  <si>
+    <t>LH0651J33</t>
+  </si>
+  <si>
+    <t>AA8264J12</t>
+  </si>
+  <si>
+    <t>AA6396J35</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/1082693566641390838/</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/82050024453148792/</t>
+  </si>
+  <si>
+    <t>AA8341J14</t>
+  </si>
+  <si>
+    <t>AA8655AP01</t>
+  </si>
+  <si>
+    <t>AA8996J03</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/532198880986444808/</t>
+  </si>
+  <si>
+    <t>AA8045J33</t>
+  </si>
+  <si>
+    <t>LH0310J14</t>
+  </si>
+  <si>
+    <t>LH0235J05</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/391742867599868379/</t>
+  </si>
+  <si>
+    <t>AA6286SN24</t>
+  </si>
+  <si>
+    <t>AA6983J24</t>
+  </si>
+  <si>
+    <t>LH0234J18</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/900438519221273358/</t>
+  </si>
+  <si>
+    <t>AA8333J31</t>
+  </si>
+  <si>
+    <t>AA8331J31</t>
+  </si>
+  <si>
+    <t>AA6988J81</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/422281206309173/</t>
+  </si>
+  <si>
+    <t>AA6431J14</t>
+  </si>
+  <si>
+    <t>AA6288SN24</t>
+  </si>
+  <si>
+    <t>LH0450J33</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/95279348356755357/</t>
+  </si>
+  <si>
+    <t>AA8235J12</t>
+  </si>
+  <si>
+    <t>AA8660</t>
+  </si>
+  <si>
+    <t>IT0343J35</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/983473637350284066/</t>
   </si>
 </sst>
 </file>
@@ -999,10 +1803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ECB3A60-1523-433E-9BFD-A546DCB0940A}">
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="C149" sqref="C149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2048,6 +2852,1553 @@
       </c>
       <c r="E61" t="s">
         <v>197</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>198</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C62" t="s">
+        <v>200</v>
+      </c>
+      <c r="D62" t="s">
+        <v>201</v>
+      </c>
+      <c r="E62" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>198</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C63" t="s">
+        <v>204</v>
+      </c>
+      <c r="D63" t="s">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>198</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C64" t="s">
+        <v>207</v>
+      </c>
+      <c r="D64" t="s">
+        <v>208</v>
+      </c>
+      <c r="E64" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>198</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C65" t="s">
+        <v>211</v>
+      </c>
+      <c r="D65" t="s">
+        <v>212</v>
+      </c>
+      <c r="E65" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>198</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C66" t="s">
+        <v>215</v>
+      </c>
+      <c r="D66" t="s">
+        <v>213</v>
+      </c>
+      <c r="E66" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>198</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C67" t="s">
+        <v>218</v>
+      </c>
+      <c r="D67" t="s">
+        <v>219</v>
+      </c>
+      <c r="E67" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>198</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C68" t="s">
+        <v>222</v>
+      </c>
+      <c r="D68" t="s">
+        <v>204</v>
+      </c>
+      <c r="E68" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>198</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C69" t="s">
+        <v>224</v>
+      </c>
+      <c r="D69" t="s">
+        <v>204</v>
+      </c>
+      <c r="E69" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>198</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C70" t="s">
+        <v>226</v>
+      </c>
+      <c r="D70" t="s">
+        <v>227</v>
+      </c>
+      <c r="E70" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>198</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C71" t="s">
+        <v>230</v>
+      </c>
+      <c r="D71" t="s">
+        <v>231</v>
+      </c>
+      <c r="E71" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>198</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C72" t="s">
+        <v>234</v>
+      </c>
+      <c r="D72" t="s">
+        <v>235</v>
+      </c>
+      <c r="E72" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>198</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C73" t="s">
+        <v>213</v>
+      </c>
+      <c r="D73" t="s">
+        <v>212</v>
+      </c>
+      <c r="E73" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>198</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C74" t="s">
+        <v>212</v>
+      </c>
+      <c r="D74" t="s">
+        <v>204</v>
+      </c>
+      <c r="E74" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>198</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C75" t="s">
+        <v>236</v>
+      </c>
+      <c r="D75" t="s">
+        <v>239</v>
+      </c>
+      <c r="E75" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>198</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C76" t="s">
+        <v>212</v>
+      </c>
+      <c r="D76" t="s">
+        <v>211</v>
+      </c>
+      <c r="E76" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>198</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C77" t="s">
+        <v>222</v>
+      </c>
+      <c r="D77" t="s">
+        <v>215</v>
+      </c>
+      <c r="E77" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>198</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C78" t="s">
+        <v>245</v>
+      </c>
+      <c r="D78" t="s">
+        <v>213</v>
+      </c>
+      <c r="E78" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>198</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C79" t="s">
+        <v>247</v>
+      </c>
+      <c r="D79" t="s">
+        <v>248</v>
+      </c>
+      <c r="E79" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>198</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C80" t="s">
+        <v>251</v>
+      </c>
+      <c r="D80" t="s">
+        <v>208</v>
+      </c>
+      <c r="E80" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>198</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C81" t="s">
+        <v>254</v>
+      </c>
+      <c r="D81" t="s">
+        <v>200</v>
+      </c>
+      <c r="E81" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>255</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C82" t="s">
+        <v>256</v>
+      </c>
+      <c r="D82" t="s">
+        <v>257</v>
+      </c>
+      <c r="E82" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>255</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C83" t="s">
+        <v>258</v>
+      </c>
+      <c r="D83" t="s">
+        <v>260</v>
+      </c>
+      <c r="E83" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>255</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C84" t="s">
+        <v>264</v>
+      </c>
+      <c r="D84" t="s">
+        <v>265</v>
+      </c>
+      <c r="E84" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>255</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C85" t="s">
+        <v>272</v>
+      </c>
+      <c r="D85" t="s">
+        <v>274</v>
+      </c>
+      <c r="E85" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>255</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C86" t="s">
+        <v>268</v>
+      </c>
+      <c r="D86" t="s">
+        <v>269</v>
+      </c>
+      <c r="E86" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>255</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C87" t="s">
+        <v>257</v>
+      </c>
+      <c r="D87" t="s">
+        <v>276</v>
+      </c>
+      <c r="E87" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>255</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C88" t="s">
+        <v>272</v>
+      </c>
+      <c r="D88" t="s">
+        <v>274</v>
+      </c>
+      <c r="E88" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>255</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C89" t="s">
+        <v>283</v>
+      </c>
+      <c r="D89" t="s">
+        <v>282</v>
+      </c>
+      <c r="E89" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>255</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C90" t="s">
+        <v>283</v>
+      </c>
+      <c r="D90" t="s">
+        <v>282</v>
+      </c>
+      <c r="E90" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>255</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C91" t="s">
+        <v>273</v>
+      </c>
+      <c r="D91" t="s">
+        <v>285</v>
+      </c>
+      <c r="E91" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>255</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C92" t="s">
+        <v>274</v>
+      </c>
+      <c r="D92" t="s">
+        <v>288</v>
+      </c>
+      <c r="E92" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>255</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C93" t="s">
+        <v>268</v>
+      </c>
+      <c r="D93" t="s">
+        <v>292</v>
+      </c>
+      <c r="E93" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>255</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C94" t="s">
+        <v>268</v>
+      </c>
+      <c r="D94" t="s">
+        <v>292</v>
+      </c>
+      <c r="E94" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>255</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C95" t="s">
+        <v>295</v>
+      </c>
+      <c r="D95" t="s">
+        <v>258</v>
+      </c>
+      <c r="E95" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>255</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C96" t="s">
+        <v>298</v>
+      </c>
+      <c r="D96" t="s">
+        <v>260</v>
+      </c>
+      <c r="E96" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>255</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C97" t="s">
+        <v>274</v>
+      </c>
+      <c r="D97" t="s">
+        <v>302</v>
+      </c>
+      <c r="E97" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>255</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C98" t="s">
+        <v>274</v>
+      </c>
+      <c r="D98" t="s">
+        <v>302</v>
+      </c>
+      <c r="E98" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>255</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C99" t="s">
+        <v>266</v>
+      </c>
+      <c r="D99" t="s">
+        <v>270</v>
+      </c>
+      <c r="E99" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>255</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C100" t="s">
+        <v>266</v>
+      </c>
+      <c r="D100" t="s">
+        <v>270</v>
+      </c>
+      <c r="E100" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>255</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C101" t="s">
+        <v>308</v>
+      </c>
+      <c r="D101" t="s">
+        <v>309</v>
+      </c>
+      <c r="E101" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>311</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C102" t="s">
+        <v>314</v>
+      </c>
+      <c r="D102" t="s">
+        <v>315</v>
+      </c>
+      <c r="E102" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>311</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C103" t="s">
+        <v>318</v>
+      </c>
+      <c r="D103" t="s">
+        <v>319</v>
+      </c>
+      <c r="E103" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>311</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C104" t="s">
+        <v>321</v>
+      </c>
+      <c r="D104" t="s">
+        <v>322</v>
+      </c>
+      <c r="E104" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>311</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C105" t="s">
+        <v>326</v>
+      </c>
+      <c r="D105" t="s">
+        <v>327</v>
+      </c>
+      <c r="E105" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>311</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C106" t="s">
+        <v>329</v>
+      </c>
+      <c r="D106" t="s">
+        <v>330</v>
+      </c>
+      <c r="E106" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>311</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C107" t="s">
+        <v>334</v>
+      </c>
+      <c r="D107" t="s">
+        <v>331</v>
+      </c>
+      <c r="E107" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>311</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C108" t="s">
+        <v>336</v>
+      </c>
+      <c r="D108" t="s">
+        <v>337</v>
+      </c>
+      <c r="E108" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>311</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C109" t="s">
+        <v>341</v>
+      </c>
+      <c r="D109" t="s">
+        <v>342</v>
+      </c>
+      <c r="E109" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>311</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C110" t="s">
+        <v>344</v>
+      </c>
+      <c r="D110" t="s">
+        <v>345</v>
+      </c>
+      <c r="E110" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>311</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="C111" t="s">
+        <v>350</v>
+      </c>
+      <c r="D111" t="s">
+        <v>351</v>
+      </c>
+      <c r="E111" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>311</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="C112" t="s">
+        <v>330</v>
+      </c>
+      <c r="D112" t="s">
+        <v>334</v>
+      </c>
+      <c r="E112" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>311</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="C113" t="s">
+        <v>355</v>
+      </c>
+      <c r="D113" t="s">
+        <v>356</v>
+      </c>
+      <c r="E113" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>311</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C114" t="s">
+        <v>320</v>
+      </c>
+      <c r="D114" t="s">
+        <v>358</v>
+      </c>
+      <c r="E114" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>311</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="C115" t="s">
+        <v>362</v>
+      </c>
+      <c r="D115" t="s">
+        <v>363</v>
+      </c>
+      <c r="E115" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>311</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C116" t="s">
+        <v>364</v>
+      </c>
+      <c r="D116" t="s">
+        <v>322</v>
+      </c>
+      <c r="E116" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>311</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="C117" t="s">
+        <v>370</v>
+      </c>
+      <c r="D117" t="s">
+        <v>355</v>
+      </c>
+      <c r="E117" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>311</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C118" t="s">
+        <v>367</v>
+      </c>
+      <c r="D118" t="s">
+        <v>368</v>
+      </c>
+      <c r="E118" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>311</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C119" t="s">
+        <v>331</v>
+      </c>
+      <c r="D119" t="s">
+        <v>374</v>
+      </c>
+      <c r="E119" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>311</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="C120" t="s">
+        <v>375</v>
+      </c>
+      <c r="D120" t="s">
+        <v>376</v>
+      </c>
+      <c r="E120" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>311</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C121" t="s">
+        <v>331</v>
+      </c>
+      <c r="D121" t="s">
+        <v>374</v>
+      </c>
+      <c r="E121" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>377</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="C122" t="s">
+        <v>383</v>
+      </c>
+      <c r="D122" t="s">
+        <v>384</v>
+      </c>
+      <c r="E122" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>377</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C123" t="s">
+        <v>380</v>
+      </c>
+      <c r="D123" t="s">
+        <v>381</v>
+      </c>
+      <c r="E123" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>377</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="C124" t="s">
+        <v>388</v>
+      </c>
+      <c r="D124" t="s">
+        <v>389</v>
+      </c>
+      <c r="E124" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>377</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="C125" t="s">
+        <v>391</v>
+      </c>
+      <c r="D125" t="s">
+        <v>392</v>
+      </c>
+      <c r="E125" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>377</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="C126" t="s">
+        <v>398</v>
+      </c>
+      <c r="D126" t="s">
+        <v>399</v>
+      </c>
+      <c r="E126" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>377</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="C127" t="s">
+        <v>395</v>
+      </c>
+      <c r="D127" t="s">
+        <v>396</v>
+      </c>
+      <c r="E127" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>377</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="C128" t="s">
+        <v>380</v>
+      </c>
+      <c r="D128" t="s">
+        <v>381</v>
+      </c>
+      <c r="E128" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>377</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="C129" t="s">
+        <v>404</v>
+      </c>
+      <c r="D129" t="s">
+        <v>405</v>
+      </c>
+      <c r="E129" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>377</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="C130" t="s">
+        <v>407</v>
+      </c>
+      <c r="D130" t="s">
+        <v>408</v>
+      </c>
+      <c r="E130" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>377</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="C131" t="s">
+        <v>382</v>
+      </c>
+      <c r="D131" t="s">
+        <v>411</v>
+      </c>
+      <c r="E131" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>377</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C132" t="s">
+        <v>412</v>
+      </c>
+      <c r="D132" t="s">
+        <v>413</v>
+      </c>
+      <c r="E132" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>377</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="C133" t="s">
+        <v>418</v>
+      </c>
+      <c r="D133" t="s">
+        <v>419</v>
+      </c>
+      <c r="E133" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>377</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="C134" t="s">
+        <v>380</v>
+      </c>
+      <c r="D134" t="s">
+        <v>417</v>
+      </c>
+      <c r="E134" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>377</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="C135" t="s">
+        <v>404</v>
+      </c>
+      <c r="D135" t="s">
+        <v>423</v>
+      </c>
+      <c r="E135" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>377</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="C136" t="s">
+        <v>425</v>
+      </c>
+      <c r="D136" t="s">
+        <v>426</v>
+      </c>
+      <c r="E136" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>377</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="C137" t="s">
+        <v>431</v>
+      </c>
+      <c r="D137" t="s">
+        <v>432</v>
+      </c>
+      <c r="E137" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>377</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="C138" t="s">
+        <v>380</v>
+      </c>
+      <c r="D138" t="s">
+        <v>417</v>
+      </c>
+      <c r="E138" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>377</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="C139" t="s">
+        <v>420</v>
+      </c>
+      <c r="D139" t="s">
+        <v>407</v>
+      </c>
+      <c r="E139" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>377</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="C140" t="s">
+        <v>389</v>
+      </c>
+      <c r="D140" t="s">
+        <v>390</v>
+      </c>
+      <c r="E140" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>377</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="C141" t="s">
+        <v>383</v>
+      </c>
+      <c r="D141" t="s">
+        <v>384</v>
+      </c>
+      <c r="E141" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>436</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="C142" t="s">
+        <v>437</v>
+      </c>
+      <c r="D142" t="s">
+        <v>438</v>
+      </c>
+      <c r="E142" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>436</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="C143" t="s">
+        <v>442</v>
+      </c>
+      <c r="D143" t="s">
+        <v>443</v>
+      </c>
+      <c r="E143" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>436</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C144" t="s">
+        <v>446</v>
+      </c>
+      <c r="D144" t="s">
+        <v>447</v>
+      </c>
+      <c r="E144" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>436</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="C145" t="s">
+        <v>450</v>
+      </c>
+      <c r="D145" t="s">
+        <v>451</v>
+      </c>
+      <c r="E145" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>436</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="C146" t="s">
+        <v>454</v>
+      </c>
+      <c r="D146" t="s">
+        <v>455</v>
+      </c>
+      <c r="E146" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>436</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="C147" t="s">
+        <v>458</v>
+      </c>
+      <c r="D147" t="s">
+        <v>459</v>
+      </c>
+      <c r="E147" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>436</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="C148" t="s">
+        <v>462</v>
+      </c>
+      <c r="D148" t="s">
+        <v>463</v>
+      </c>
+      <c r="E148" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>436</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>436</v>
       </c>
     </row>
   </sheetData>
@@ -2112,8 +4463,96 @@
     <hyperlink ref="B59" r:id="rId58" xr:uid="{59B1F910-04D7-433C-9D69-48A9E043EC5E}"/>
     <hyperlink ref="B61" r:id="rId59" xr:uid="{0B50D2AD-BC03-481B-B6EF-A22BB18A769E}"/>
     <hyperlink ref="B60" r:id="rId60" xr:uid="{227A4CAC-483B-46CE-BAC8-8B87FCE9A85C}"/>
+    <hyperlink ref="B62" r:id="rId61" xr:uid="{D0A34612-194A-4C44-91F4-B6532E3BE559}"/>
+    <hyperlink ref="B63" r:id="rId62" xr:uid="{56BA2AF7-C55F-4DDB-9DC4-AC130DC24F64}"/>
+    <hyperlink ref="B64" r:id="rId63" xr:uid="{B0CC597B-BD8B-4A40-AF9F-94FD9924B6B9}"/>
+    <hyperlink ref="B65" r:id="rId64" xr:uid="{6DCA7F9B-4371-4DDF-855A-63D2F2F60014}"/>
+    <hyperlink ref="B66" r:id="rId65" xr:uid="{567B5B97-8649-4707-8457-12A910B25130}"/>
+    <hyperlink ref="B67" r:id="rId66" xr:uid="{6D48FFAF-614A-412C-BFD9-41ABBED0BF59}"/>
+    <hyperlink ref="B68" r:id="rId67" xr:uid="{CA99FD86-96B5-4F5C-AAA2-33279DF4C47B}"/>
+    <hyperlink ref="B69" r:id="rId68" xr:uid="{46C831B9-331B-4EB4-8449-150A35FE2D75}"/>
+    <hyperlink ref="B70" r:id="rId69" xr:uid="{A17D7551-7E97-4FDC-96B0-9ABD336515F5}"/>
+    <hyperlink ref="B71" r:id="rId70" xr:uid="{9D9318DD-7281-4500-87C8-C9055F2EEEE1}"/>
+    <hyperlink ref="B72" r:id="rId71" xr:uid="{04672C74-6654-4F66-8B7B-D2114016A9A4}"/>
+    <hyperlink ref="B73" r:id="rId72" xr:uid="{366C4E21-6508-4D22-88AF-50365F4947C8}"/>
+    <hyperlink ref="B74" r:id="rId73" xr:uid="{BDB2A46B-EFC9-41A4-91B1-A9A6298EF703}"/>
+    <hyperlink ref="B75" r:id="rId74" xr:uid="{618A1DBB-BC2F-4F59-A6D1-2E2BF26A4387}"/>
+    <hyperlink ref="B76" r:id="rId75" xr:uid="{F6AA3173-4633-445A-B7DC-FF4F5A59F31E}"/>
+    <hyperlink ref="B77" r:id="rId76" xr:uid="{B4281F0C-7012-4B4B-A0BA-B4A4E6778D6A}"/>
+    <hyperlink ref="B78" r:id="rId77" xr:uid="{F7C6DC86-6001-4CFF-AE68-7BE56FD4A950}"/>
+    <hyperlink ref="B79" r:id="rId78" xr:uid="{D5A02707-A817-4248-995B-7FB3AAD45486}"/>
+    <hyperlink ref="B80" r:id="rId79" xr:uid="{B175ADE7-C3F5-4D3D-A7D5-46B02287FD03}"/>
+    <hyperlink ref="B81" r:id="rId80" xr:uid="{87B92C3C-3454-406A-837E-C23302BF9216}"/>
+    <hyperlink ref="B82" r:id="rId81" xr:uid="{9BDE3B38-1A15-41AD-8073-20BA3B68E84F}"/>
+    <hyperlink ref="B83" r:id="rId82" xr:uid="{EA6A173A-043F-4268-8501-5EC79EDC16E9}"/>
+    <hyperlink ref="B84" r:id="rId83" xr:uid="{8ED6356B-8917-414E-96D8-8A02D69DE4F8}"/>
+    <hyperlink ref="B86" r:id="rId84" xr:uid="{7DCE8140-D44B-4C91-92BF-381A9BDB1848}"/>
+    <hyperlink ref="B85" r:id="rId85" xr:uid="{73FF1940-7F88-418A-B5B4-434BF54EE5A4}"/>
+    <hyperlink ref="B87" r:id="rId86" xr:uid="{E3ED38D0-88C4-470B-98E1-1DB47758A731}"/>
+    <hyperlink ref="B88" r:id="rId87" xr:uid="{DA0B34E8-127E-4B2A-86E5-F0264F99405B}"/>
+    <hyperlink ref="B89" r:id="rId88" xr:uid="{74694656-294E-4E7D-92A7-E356F81DAC37}"/>
+    <hyperlink ref="B90" r:id="rId89" xr:uid="{07BFDFBB-92AA-47D9-B44A-2C10499F0B2E}"/>
+    <hyperlink ref="B91" r:id="rId90" xr:uid="{B1DCFC87-AAAE-4F69-9EB1-13B058F41C14}"/>
+    <hyperlink ref="B92" r:id="rId91" xr:uid="{A7755599-1652-4F95-AC18-DD4F62A39E74}"/>
+    <hyperlink ref="B93" r:id="rId92" xr:uid="{5B6722B2-9F49-4657-8326-8D137571575D}"/>
+    <hyperlink ref="B94" r:id="rId93" xr:uid="{963D10B1-29A6-457E-A6A2-26E27AD157AD}"/>
+    <hyperlink ref="B95" r:id="rId94" xr:uid="{EB261901-2633-48A9-ADDD-111EE522DD93}"/>
+    <hyperlink ref="B96" r:id="rId95" xr:uid="{07129382-52AE-461D-AC45-869AA254AB7D}"/>
+    <hyperlink ref="B98" r:id="rId96" xr:uid="{4CDCABD7-7CAB-4D47-B70F-F47E2EEDCE54}"/>
+    <hyperlink ref="B97" r:id="rId97" xr:uid="{15EBE188-A371-47F9-9396-A3C218A198C3}"/>
+    <hyperlink ref="B99" r:id="rId98" xr:uid="{A346CF46-C680-4614-839B-9317C497F593}"/>
+    <hyperlink ref="B100" r:id="rId99" xr:uid="{FE5BA04B-AB25-4B23-B5E8-7DB075A7121F}"/>
+    <hyperlink ref="B101" r:id="rId100" xr:uid="{CA5BA8C8-62AB-4BED-8FDC-51C6A4892964}"/>
+    <hyperlink ref="B102" r:id="rId101" xr:uid="{D9BA740E-2BB9-4C9E-BED4-3334941353EA}"/>
+    <hyperlink ref="B103" r:id="rId102" xr:uid="{683227C9-1531-4022-93D8-F736949464B9}"/>
+    <hyperlink ref="B104" r:id="rId103" xr:uid="{FC0C76AC-02DE-43BE-8483-C4C50613E054}"/>
+    <hyperlink ref="B106" r:id="rId104" xr:uid="{7F18B8BE-7E96-41E9-9B22-0A3BB45852AB}"/>
+    <hyperlink ref="B105" r:id="rId105" xr:uid="{4C55F593-A141-4B43-AF6E-84DB91DF8137}"/>
+    <hyperlink ref="B107" r:id="rId106" xr:uid="{E83B9AD8-ACAC-45E6-9849-BC8128C84A82}"/>
+    <hyperlink ref="B108" r:id="rId107" xr:uid="{AF5A3968-38F5-4074-9ED9-38A384D68A1B}"/>
+    <hyperlink ref="B110" r:id="rId108" xr:uid="{A3EB16D3-0B69-4837-80D5-50917588628A}"/>
+    <hyperlink ref="B109" r:id="rId109" xr:uid="{A3AECEF1-5A74-49E0-BF1D-AC8578AF2F2A}"/>
+    <hyperlink ref="B112" r:id="rId110" xr:uid="{91EFCC42-AAB3-44EF-91CA-95A5A8AC13B9}"/>
+    <hyperlink ref="B111" r:id="rId111" xr:uid="{D3E53509-5EE3-4F58-A37B-2DA74F741945}"/>
+    <hyperlink ref="B114" r:id="rId112" xr:uid="{84960291-28D8-4E00-A667-A5A73BDA20D5}"/>
+    <hyperlink ref="B113" r:id="rId113" xr:uid="{02C387C4-B2ED-471B-8948-5BA58C0173F3}"/>
+    <hyperlink ref="B115" r:id="rId114" xr:uid="{2B945390-2E97-4829-A074-9EB7737535D5}"/>
+    <hyperlink ref="B116" r:id="rId115" xr:uid="{D33EA78A-BD07-48E6-BB0A-BEDED0B9A7CA}"/>
+    <hyperlink ref="B118" r:id="rId116" xr:uid="{8B193D87-5A72-4C7A-932A-D5D3F251A827}"/>
+    <hyperlink ref="B117" r:id="rId117" xr:uid="{6BEAC276-2D35-4EFF-93AD-12DD13A1200F}"/>
+    <hyperlink ref="B119" r:id="rId118" xr:uid="{711BDD68-A047-4684-B863-1BCD151DB956}"/>
+    <hyperlink ref="B120" r:id="rId119" xr:uid="{6E916E67-2BB1-4285-829E-3B3FC11FAD31}"/>
+    <hyperlink ref="B121" r:id="rId120" xr:uid="{D3D773B1-2B82-4AB8-9CF2-B10F42882A3B}"/>
+    <hyperlink ref="B122" r:id="rId121" xr:uid="{0A3C4F4E-59D5-4819-AAE6-430F437C9A60}"/>
+    <hyperlink ref="B123" r:id="rId122" xr:uid="{FF1D1FE5-E068-483F-B816-A56C34F0847E}"/>
+    <hyperlink ref="B124" r:id="rId123" xr:uid="{AC87CC1D-8162-41CA-8C01-169EB6149B02}"/>
+    <hyperlink ref="B125" r:id="rId124" xr:uid="{29596F86-683D-4880-9864-48ED86729010}"/>
+    <hyperlink ref="B127" r:id="rId125" xr:uid="{5CD38073-3DCA-4A1A-941F-946789AFF732}"/>
+    <hyperlink ref="B126" r:id="rId126" xr:uid="{EDED1C1D-62E3-455C-80AB-B475440C50F8}"/>
+    <hyperlink ref="B128" r:id="rId127" xr:uid="{A6DD30C8-070E-4C50-9E61-1D68699B386A}"/>
+    <hyperlink ref="B130" r:id="rId128" xr:uid="{18161925-34AE-4CA4-AD50-BE3BC7A18BFD}"/>
+    <hyperlink ref="B129" r:id="rId129" xr:uid="{5D179A33-D017-4330-81F4-FF5341B4BAF4}"/>
+    <hyperlink ref="B132" r:id="rId130" xr:uid="{6560BB2A-3E56-404C-B46C-FBC50E5DB98A}"/>
+    <hyperlink ref="B131" r:id="rId131" xr:uid="{9C8C9957-6EC4-4970-AB0B-B50C07F23154}"/>
+    <hyperlink ref="B134" r:id="rId132" xr:uid="{7F2B1824-64DA-4E8E-9EA5-5C02E48E228C}"/>
+    <hyperlink ref="B133" r:id="rId133" xr:uid="{660F440B-9AA7-416F-AA29-3364C05EF67A}"/>
+    <hyperlink ref="B136" r:id="rId134" xr:uid="{252E844B-FAAC-4E3B-BCF4-B82300CA54DC}"/>
+    <hyperlink ref="B135" r:id="rId135" xr:uid="{317022B6-DE5A-491A-B435-128F70D6C114}"/>
+    <hyperlink ref="B138" r:id="rId136" xr:uid="{6A32043D-5537-4DB4-A58B-870CD8E4EAF8}"/>
+    <hyperlink ref="B137" r:id="rId137" xr:uid="{8DA48E71-FFCA-4597-B2C8-38500D84865B}"/>
+    <hyperlink ref="B139" r:id="rId138" xr:uid="{0C8C8266-0B97-48EC-B4AC-C1DD9DDF0A6D}"/>
+    <hyperlink ref="B140" r:id="rId139" xr:uid="{D901F3BF-0DC5-422B-AC76-6855577DA81E}"/>
+    <hyperlink ref="B141" r:id="rId140" xr:uid="{027D3261-2FCD-4672-8CF7-5AD56FA06141}"/>
+    <hyperlink ref="B142" r:id="rId141" xr:uid="{FA563E19-A0EF-4950-B091-372A6C4A77A9}"/>
+    <hyperlink ref="B143" r:id="rId142" xr:uid="{F48B744A-EDF5-43D3-9B28-BF41633713F0}"/>
+    <hyperlink ref="B144" r:id="rId143" xr:uid="{ACC84BC1-745C-4AC6-B205-281C07046DC8}"/>
+    <hyperlink ref="B145" r:id="rId144" xr:uid="{8B7CE61A-AD63-4149-ADAC-E2E928B90B92}"/>
+    <hyperlink ref="B146" r:id="rId145" xr:uid="{7BD8F1EA-F83C-4B29-A1C2-023520B5C9AF}"/>
+    <hyperlink ref="B147" r:id="rId146" xr:uid="{3F9E0322-7E09-43AA-8F15-EF33D5ADB81A}"/>
+    <hyperlink ref="B148" r:id="rId147" xr:uid="{EBC507A3-FF30-4176-8BA0-D61700EEDBC3}"/>
+    <hyperlink ref="B149" r:id="rId148" xr:uid="{79567438-1E0A-4BCB-B1A0-26A46A216025}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId61"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId149"/>
 </worksheet>
 </file>
--- a/Validation/Validation dataset.xlsx
+++ b/Validation/Validation dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Desktop\Universidad\Q6\PE\Trend-Analytics\Validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B491226B-DB49-49E2-BE8D-149A8E2D2762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739DD697-727C-4640-ABA2-C77E3E78E286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{51C03CC0-8AD4-4547-8F85-35A5BED8B5C2}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="531">
   <si>
     <t>POST</t>
   </si>
@@ -725,15 +725,6 @@
     <t>https://www.pinterest.es/pin/1150810511004606181/</t>
   </si>
   <si>
-    <t>CC3015U02</t>
-  </si>
-  <si>
-    <t>CC0637UE03</t>
-  </si>
-  <si>
-    <t>C052U06</t>
-  </si>
-  <si>
     <t>https://www.pinterest.es/pin/199636195982718216/</t>
   </si>
   <si>
@@ -1431,6 +1422,210 @@
   </si>
   <si>
     <t>https://www.pinterest.es/pin/983473637350284066/</t>
+  </si>
+  <si>
+    <t>AA8268J39</t>
+  </si>
+  <si>
+    <t>AA8232J11</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/1125477763100851124/</t>
+  </si>
+  <si>
+    <t>LH0235J01</t>
+  </si>
+  <si>
+    <t>AA9991J01</t>
+  </si>
+  <si>
+    <t>LH0312J01</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/4855512090803310/</t>
+  </si>
+  <si>
+    <t>AA8655AP33</t>
+  </si>
+  <si>
+    <t>AA8355J39</t>
+  </si>
+  <si>
+    <t>LH0238J60</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/940548703398797091/</t>
+  </si>
+  <si>
+    <t>AA9084J86</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/506303183116316496/</t>
+  </si>
+  <si>
+    <t>AA7776J33</t>
+  </si>
+  <si>
+    <t>LH0314J12</t>
+  </si>
+  <si>
+    <t>AA8967J33</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/572449802646518034/</t>
+  </si>
+  <si>
+    <t>LH0239J60</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/813040538980084852/</t>
+  </si>
+  <si>
+    <t>IT0303J33</t>
+  </si>
+  <si>
+    <t>AA8299J33</t>
+  </si>
+  <si>
+    <t>AA7107J24</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/156640893280144421/</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/1145532855209233117/</t>
+  </si>
+  <si>
+    <t>AA8335J31</t>
+  </si>
+  <si>
+    <t>AA6398J35</t>
+  </si>
+  <si>
+    <t>AA6404J35</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/1145532855209712054/</t>
+  </si>
+  <si>
+    <t>AB0007J05</t>
+  </si>
+  <si>
+    <t>AA6286SN39</t>
+  </si>
+  <si>
+    <t>AA8286J05</t>
+  </si>
+  <si>
+    <t>AA8665</t>
+  </si>
+  <si>
+    <t>AA7726J35</t>
+  </si>
+  <si>
+    <t>AA8664</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/497295983863195010/</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/206180489180831239/</t>
+  </si>
+  <si>
+    <t>AA9007J12</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/25192079157420605/</t>
+  </si>
+  <si>
+    <t>AA8359J30</t>
+  </si>
+  <si>
+    <t>AA6985J12</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/304837468539115401/</t>
+  </si>
+  <si>
+    <t>JARRÓN</t>
+  </si>
+  <si>
+    <t>AA8622M43</t>
+  </si>
+  <si>
+    <t>AA0600C10</t>
+  </si>
+  <si>
+    <t>AA8178K03</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/769763761323357856/</t>
+  </si>
+  <si>
+    <t>IT0070PR60</t>
+  </si>
+  <si>
+    <t>LH0162R03</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/799529740098709623/</t>
+  </si>
+  <si>
+    <t>A435C25</t>
+  </si>
+  <si>
+    <t>AA4380K26</t>
+  </si>
+  <si>
+    <t>AA6907C03</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/769763761323358225/</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/769763761323358233/</t>
+  </si>
+  <si>
+    <t>A436C25</t>
+  </si>
+  <si>
+    <t>AA8527C03</t>
+  </si>
+  <si>
+    <t>AA4686C15</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/628181848032626797/</t>
+  </si>
+  <si>
+    <t>AA0600C25</t>
+  </si>
+  <si>
+    <t>AA3822R83</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/1056938606269157716/</t>
+  </si>
+  <si>
+    <t>A435C07</t>
+  </si>
+  <si>
+    <t>AA8514C07</t>
+  </si>
+  <si>
+    <t>A436C10</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/847802698615726724/</t>
+  </si>
+  <si>
+    <t>AA4371K05</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/1145532855208069653/</t>
+  </si>
+  <si>
+    <t>AA8186K03</t>
   </si>
 </sst>
 </file>
@@ -1803,10 +1998,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ECB3A60-1523-433E-9BFD-A546DCB0940A}">
-  <dimension ref="A1:E161"/>
+  <dimension ref="A1:E181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="C149" sqref="C149"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3015,13 +3210,13 @@
         <v>229</v>
       </c>
       <c r="C71" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D71" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="E71" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -3029,16 +3224,16 @@
         <v>198</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C72" t="s">
+        <v>231</v>
+      </c>
+      <c r="D72" t="s">
+        <v>232</v>
+      </c>
+      <c r="E72" t="s">
         <v>233</v>
-      </c>
-      <c r="C72" t="s">
-        <v>234</v>
-      </c>
-      <c r="D72" t="s">
-        <v>235</v>
-      </c>
-      <c r="E72" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -3046,7 +3241,7 @@
         <v>198</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C73" t="s">
         <v>213</v>
@@ -3063,7 +3258,7 @@
         <v>198</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C74" t="s">
         <v>212</v>
@@ -3083,13 +3278,13 @@
         <v>46</v>
       </c>
       <c r="C75" t="s">
+        <v>233</v>
+      </c>
+      <c r="D75" t="s">
         <v>236</v>
       </c>
-      <c r="D75" t="s">
-        <v>239</v>
-      </c>
       <c r="E75" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -3097,7 +3292,7 @@
         <v>198</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C76" t="s">
         <v>212</v>
@@ -3106,7 +3301,7 @@
         <v>211</v>
       </c>
       <c r="E76" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -3114,7 +3309,7 @@
         <v>198</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C77" t="s">
         <v>222</v>
@@ -3131,10 +3326,10 @@
         <v>198</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C78" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D78" t="s">
         <v>213</v>
@@ -3148,16 +3343,16 @@
         <v>198</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C79" t="s">
+        <v>244</v>
+      </c>
+      <c r="D79" t="s">
+        <v>245</v>
+      </c>
+      <c r="E79" t="s">
         <v>246</v>
-      </c>
-      <c r="C79" t="s">
-        <v>247</v>
-      </c>
-      <c r="D79" t="s">
-        <v>248</v>
-      </c>
-      <c r="E79" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -3165,16 +3360,16 @@
         <v>198</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C80" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D80" t="s">
         <v>208</v>
       </c>
       <c r="E80" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -3182,10 +3377,10 @@
         <v>198</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C81" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D81" t="s">
         <v>200</v>
@@ -3196,1209 +3391,1570 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>252</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C82" t="s">
+        <v>253</v>
+      </c>
+      <c r="D82" t="s">
+        <v>254</v>
+      </c>
+      <c r="E82" t="s">
         <v>255</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="C82" t="s">
-        <v>256</v>
-      </c>
-      <c r="D82" t="s">
-        <v>257</v>
-      </c>
-      <c r="E82" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>252</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C83" t="s">
         <v>255</v>
       </c>
-      <c r="B83" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
+        <v>257</v>
+      </c>
+      <c r="E83" t="s">
         <v>258</v>
-      </c>
-      <c r="D83" t="s">
-        <v>260</v>
-      </c>
-      <c r="E83" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B84" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C84" t="s">
+        <v>261</v>
+      </c>
+      <c r="D84" t="s">
+        <v>262</v>
+      </c>
+      <c r="E84" t="s">
         <v>263</v>
-      </c>
-      <c r="C84" t="s">
-        <v>264</v>
-      </c>
-      <c r="D84" t="s">
-        <v>265</v>
-      </c>
-      <c r="E84" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B85" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C85" t="s">
+        <v>269</v>
+      </c>
+      <c r="D85" t="s">
         <v>271</v>
       </c>
-      <c r="C85" t="s">
-        <v>272</v>
-      </c>
-      <c r="D85" t="s">
-        <v>274</v>
-      </c>
       <c r="E85" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B86" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C86" t="s">
+        <v>265</v>
+      </c>
+      <c r="D86" t="s">
+        <v>266</v>
+      </c>
+      <c r="E86" t="s">
         <v>267</v>
-      </c>
-      <c r="C86" t="s">
-        <v>268</v>
-      </c>
-      <c r="D86" t="s">
-        <v>269</v>
-      </c>
-      <c r="E86" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C87" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D87" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E87" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C88" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D88" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E88" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B89" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C89" t="s">
         <v>280</v>
       </c>
-      <c r="C89" t="s">
-        <v>283</v>
-      </c>
       <c r="D89" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E89" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B90" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C90" t="s">
+        <v>280</v>
+      </c>
+      <c r="D90" t="s">
         <v>279</v>
       </c>
-      <c r="C90" t="s">
-        <v>283</v>
-      </c>
-      <c r="D90" t="s">
-        <v>282</v>
-      </c>
       <c r="E90" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C91" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D91" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E91" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C92" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D92" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E92" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B93" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="C93" t="s">
+        <v>265</v>
+      </c>
+      <c r="D93" t="s">
+        <v>289</v>
+      </c>
+      <c r="E93" t="s">
         <v>290</v>
-      </c>
-      <c r="C93" t="s">
-        <v>268</v>
-      </c>
-      <c r="D93" t="s">
-        <v>292</v>
-      </c>
-      <c r="E93" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C94" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D94" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E94" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>252</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="C95" t="s">
+        <v>292</v>
+      </c>
+      <c r="D95" t="s">
         <v>255</v>
       </c>
-      <c r="B95" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="C95" t="s">
-        <v>295</v>
-      </c>
-      <c r="D95" t="s">
-        <v>258</v>
-      </c>
       <c r="E95" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C96" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D96" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E96" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B97" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C97" t="s">
+        <v>271</v>
+      </c>
+      <c r="D97" t="s">
+        <v>299</v>
+      </c>
+      <c r="E97" t="s">
         <v>300</v>
-      </c>
-      <c r="C97" t="s">
-        <v>274</v>
-      </c>
-      <c r="D97" t="s">
-        <v>302</v>
-      </c>
-      <c r="E97" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C98" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D98" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E98" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C99" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D99" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E99" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C100" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D100" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E100" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B101" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C101" t="s">
+        <v>305</v>
+      </c>
+      <c r="D101" t="s">
+        <v>306</v>
+      </c>
+      <c r="E101" t="s">
         <v>307</v>
-      </c>
-      <c r="C101" t="s">
-        <v>308</v>
-      </c>
-      <c r="D101" t="s">
-        <v>309</v>
-      </c>
-      <c r="E101" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>308</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C102" t="s">
         <v>311</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="D102" t="s">
         <v>312</v>
       </c>
-      <c r="C102" t="s">
-        <v>314</v>
-      </c>
-      <c r="D102" t="s">
-        <v>315</v>
-      </c>
       <c r="E102" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C103" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D103" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E103" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C104" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D104" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E104" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B105" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="C105" t="s">
+        <v>323</v>
+      </c>
+      <c r="D105" t="s">
+        <v>324</v>
+      </c>
+      <c r="E105" t="s">
         <v>325</v>
-      </c>
-      <c r="C105" t="s">
-        <v>326</v>
-      </c>
-      <c r="D105" t="s">
-        <v>327</v>
-      </c>
-      <c r="E105" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C106" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D106" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E106" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B107" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C107" t="s">
+        <v>331</v>
+      </c>
+      <c r="D107" t="s">
+        <v>328</v>
+      </c>
+      <c r="E107" t="s">
         <v>332</v>
-      </c>
-      <c r="C107" t="s">
-        <v>334</v>
-      </c>
-      <c r="D107" t="s">
-        <v>331</v>
-      </c>
-      <c r="E107" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B108" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C108" t="s">
         <v>333</v>
       </c>
-      <c r="C108" t="s">
-        <v>336</v>
-      </c>
       <c r="D108" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E108" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B109" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C109" t="s">
+        <v>338</v>
+      </c>
+      <c r="D109" t="s">
+        <v>339</v>
+      </c>
+      <c r="E109" t="s">
         <v>340</v>
-      </c>
-      <c r="C109" t="s">
-        <v>341</v>
-      </c>
-      <c r="D109" t="s">
-        <v>342</v>
-      </c>
-      <c r="E109" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C110" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D110" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="E110" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B111" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="C111" t="s">
+        <v>347</v>
+      </c>
+      <c r="D111" t="s">
         <v>348</v>
       </c>
-      <c r="C111" t="s">
-        <v>350</v>
-      </c>
-      <c r="D111" t="s">
-        <v>351</v>
-      </c>
       <c r="E111" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C112" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D112" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E112" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B113" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C113" t="s">
+        <v>352</v>
+      </c>
+      <c r="D113" t="s">
+        <v>353</v>
+      </c>
+      <c r="E113" t="s">
         <v>354</v>
-      </c>
-      <c r="C113" t="s">
-        <v>355</v>
-      </c>
-      <c r="D113" t="s">
-        <v>356</v>
-      </c>
-      <c r="E113" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C114" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D114" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E114" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B115" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C115" t="s">
+        <v>359</v>
+      </c>
+      <c r="D115" t="s">
         <v>360</v>
       </c>
-      <c r="C115" t="s">
-        <v>362</v>
-      </c>
-      <c r="D115" t="s">
-        <v>363</v>
-      </c>
       <c r="E115" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B116" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="C116" t="s">
         <v>361</v>
       </c>
-      <c r="C116" t="s">
-        <v>364</v>
-      </c>
       <c r="D116" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E116" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C117" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D117" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E117" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B118" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C118" t="s">
+        <v>364</v>
+      </c>
+      <c r="D118" t="s">
         <v>365</v>
       </c>
-      <c r="C118" t="s">
-        <v>367</v>
-      </c>
-      <c r="D118" t="s">
-        <v>368</v>
-      </c>
       <c r="E118" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B119" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="C119" t="s">
+        <v>328</v>
+      </c>
+      <c r="D119" t="s">
         <v>371</v>
       </c>
-      <c r="C119" t="s">
-        <v>331</v>
-      </c>
-      <c r="D119" t="s">
-        <v>374</v>
-      </c>
       <c r="E119" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B120" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C120" t="s">
         <v>372</v>
       </c>
-      <c r="C120" t="s">
-        <v>375</v>
-      </c>
       <c r="D120" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E120" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="C121" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D121" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E121" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C122" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D122" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E122" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
+        <v>374</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="C123" t="s">
         <v>377</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="D123" t="s">
+        <v>378</v>
+      </c>
+      <c r="E123" t="s">
         <v>379</v>
-      </c>
-      <c r="C123" t="s">
-        <v>380</v>
-      </c>
-      <c r="D123" t="s">
-        <v>381</v>
-      </c>
-      <c r="E123" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B124" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C124" t="s">
+        <v>385</v>
+      </c>
+      <c r="D124" t="s">
         <v>386</v>
       </c>
-      <c r="C124" t="s">
-        <v>388</v>
-      </c>
-      <c r="D124" t="s">
-        <v>389</v>
-      </c>
       <c r="E124" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C125" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D125" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E125" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C126" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D126" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E126" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B127" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="C127" t="s">
+        <v>392</v>
+      </c>
+      <c r="D127" t="s">
         <v>393</v>
       </c>
-      <c r="C127" t="s">
-        <v>395</v>
-      </c>
-      <c r="D127" t="s">
-        <v>396</v>
-      </c>
       <c r="E127" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
+        <v>374</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="C128" t="s">
         <v>377</v>
       </c>
-      <c r="B128" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="C128" t="s">
-        <v>380</v>
-      </c>
       <c r="D128" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E128" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B129" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="C129" t="s">
+        <v>401</v>
+      </c>
+      <c r="D129" t="s">
+        <v>402</v>
+      </c>
+      <c r="E129" t="s">
         <v>403</v>
-      </c>
-      <c r="C129" t="s">
-        <v>404</v>
-      </c>
-      <c r="D129" t="s">
-        <v>405</v>
-      </c>
-      <c r="E129" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C130" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D130" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E130" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C131" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D131" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E131" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B132" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="C132" t="s">
         <v>409</v>
       </c>
-      <c r="C132" t="s">
-        <v>412</v>
-      </c>
       <c r="D132" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="E132" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B133" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="C133" t="s">
+        <v>415</v>
+      </c>
+      <c r="D133" t="s">
         <v>416</v>
       </c>
-      <c r="C133" t="s">
-        <v>418</v>
-      </c>
-      <c r="D133" t="s">
-        <v>419</v>
-      </c>
       <c r="E133" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
+        <v>374</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C134" t="s">
         <v>377</v>
       </c>
-      <c r="B134" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="C134" t="s">
+      <c r="D134" t="s">
+        <v>414</v>
+      </c>
+      <c r="E134" t="s">
         <v>380</v>
-      </c>
-      <c r="D134" t="s">
-        <v>417</v>
-      </c>
-      <c r="E134" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C135" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D135" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E135" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C136" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D136" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="E136" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B137" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C137" t="s">
+        <v>428</v>
+      </c>
+      <c r="D137" t="s">
         <v>429</v>
       </c>
-      <c r="C137" t="s">
-        <v>431</v>
-      </c>
-      <c r="D137" t="s">
-        <v>432</v>
-      </c>
       <c r="E137" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
+        <v>374</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="C138" t="s">
         <v>377</v>
       </c>
-      <c r="B138" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="C138" t="s">
+      <c r="D138" t="s">
+        <v>414</v>
+      </c>
+      <c r="E138" t="s">
         <v>380</v>
-      </c>
-      <c r="D138" t="s">
-        <v>417</v>
-      </c>
-      <c r="E138" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C139" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D139" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E139" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C140" t="s">
+        <v>386</v>
+      </c>
+      <c r="D140" t="s">
+        <v>387</v>
+      </c>
+      <c r="E140" t="s">
         <v>389</v>
-      </c>
-      <c r="D140" t="s">
-        <v>390</v>
-      </c>
-      <c r="E140" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C141" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D141" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="E141" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
+        <v>433</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="C142" t="s">
+        <v>434</v>
+      </c>
+      <c r="D142" t="s">
+        <v>435</v>
+      </c>
+      <c r="E142" t="s">
         <v>436</v>
-      </c>
-      <c r="B142" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="C142" t="s">
-        <v>437</v>
-      </c>
-      <c r="D142" t="s">
-        <v>438</v>
-      </c>
-      <c r="E142" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B143" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="C143" t="s">
+        <v>439</v>
+      </c>
+      <c r="D143" t="s">
+        <v>440</v>
+      </c>
+      <c r="E143" t="s">
         <v>441</v>
-      </c>
-      <c r="C143" t="s">
-        <v>442</v>
-      </c>
-      <c r="D143" t="s">
-        <v>443</v>
-      </c>
-      <c r="E143" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B144" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C144" t="s">
+        <v>443</v>
+      </c>
+      <c r="D144" t="s">
+        <v>444</v>
+      </c>
+      <c r="E144" t="s">
         <v>445</v>
-      </c>
-      <c r="C144" t="s">
-        <v>446</v>
-      </c>
-      <c r="D144" t="s">
-        <v>447</v>
-      </c>
-      <c r="E144" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B145" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="C145" t="s">
+        <v>447</v>
+      </c>
+      <c r="D145" t="s">
+        <v>448</v>
+      </c>
+      <c r="E145" t="s">
         <v>449</v>
-      </c>
-      <c r="C145" t="s">
-        <v>450</v>
-      </c>
-      <c r="D145" t="s">
-        <v>451</v>
-      </c>
-      <c r="E145" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B146" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="C146" t="s">
+        <v>451</v>
+      </c>
+      <c r="D146" t="s">
+        <v>452</v>
+      </c>
+      <c r="E146" t="s">
         <v>453</v>
-      </c>
-      <c r="C146" t="s">
-        <v>454</v>
-      </c>
-      <c r="D146" t="s">
-        <v>455</v>
-      </c>
-      <c r="E146" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B147" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="C147" t="s">
+        <v>455</v>
+      </c>
+      <c r="D147" t="s">
+        <v>456</v>
+      </c>
+      <c r="E147" t="s">
         <v>457</v>
-      </c>
-      <c r="C147" t="s">
-        <v>458</v>
-      </c>
-      <c r="D147" t="s">
-        <v>459</v>
-      </c>
-      <c r="E147" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B148" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="C148" t="s">
+        <v>459</v>
+      </c>
+      <c r="D148" t="s">
+        <v>460</v>
+      </c>
+      <c r="E148" t="s">
         <v>461</v>
-      </c>
-      <c r="C148" t="s">
-        <v>462</v>
-      </c>
-      <c r="D148" t="s">
-        <v>463</v>
-      </c>
-      <c r="E148" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>465</v>
+        <v>462</v>
+      </c>
+      <c r="C149" t="s">
+        <v>434</v>
+      </c>
+      <c r="D149" t="s">
+        <v>463</v>
+      </c>
+      <c r="E149" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>436</v>
+        <v>433</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="C150" t="s">
+        <v>466</v>
+      </c>
+      <c r="D150" t="s">
+        <v>467</v>
+      </c>
+      <c r="E150" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>436</v>
+        <v>433</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="C151" t="s">
+        <v>470</v>
+      </c>
+      <c r="D151" t="s">
+        <v>471</v>
+      </c>
+      <c r="E151" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>436</v>
+        <v>433</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="C152" t="s">
+        <v>459</v>
+      </c>
+      <c r="D152" t="s">
+        <v>464</v>
+      </c>
+      <c r="E152" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>436</v>
+        <v>433</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="C153" t="s">
+        <v>476</v>
+      </c>
+      <c r="D153" t="s">
+        <v>477</v>
+      </c>
+      <c r="E153" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>436</v>
+        <v>433</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C154" t="s">
+        <v>470</v>
+      </c>
+      <c r="D154" t="s">
+        <v>439</v>
+      </c>
+      <c r="E154" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>436</v>
+        <v>433</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="C155" t="s">
+        <v>482</v>
+      </c>
+      <c r="D155" t="s">
+        <v>483</v>
+      </c>
+      <c r="E155" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>436</v>
+        <v>433</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="C156" t="s">
+        <v>482</v>
+      </c>
+      <c r="D156" t="s">
+        <v>476</v>
+      </c>
+      <c r="E156" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>436</v>
+        <v>433</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="C157" t="s">
+        <v>487</v>
+      </c>
+      <c r="D157" t="s">
+        <v>488</v>
+      </c>
+      <c r="E157" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>436</v>
+        <v>433</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="C158" t="s">
+        <v>491</v>
+      </c>
+      <c r="D158" t="s">
+        <v>492</v>
+      </c>
+      <c r="E158" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>436</v>
+        <v>433</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="C159" t="s">
+        <v>494</v>
+      </c>
+      <c r="D159" t="s">
+        <v>495</v>
+      </c>
+      <c r="E159" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+        <v>433</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="C160" t="s">
+        <v>499</v>
+      </c>
+      <c r="D160" t="s">
+        <v>463</v>
+      </c>
+      <c r="E160" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>436</v>
+        <v>433</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="C161" t="s">
+        <v>501</v>
+      </c>
+      <c r="D161" t="s">
+        <v>502</v>
+      </c>
+      <c r="E161" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>504</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="C162" t="s">
+        <v>505</v>
+      </c>
+      <c r="D162" t="s">
+        <v>506</v>
+      </c>
+      <c r="E162" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>504</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="C163" t="s">
+        <v>509</v>
+      </c>
+      <c r="D163" t="s">
+        <v>510</v>
+      </c>
+      <c r="E163" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>504</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="C164" t="s">
+        <v>512</v>
+      </c>
+      <c r="D164" t="s">
+        <v>513</v>
+      </c>
+      <c r="E164" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>504</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="C165" t="s">
+        <v>512</v>
+      </c>
+      <c r="D165" t="s">
+        <v>513</v>
+      </c>
+      <c r="E165" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>504</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="C166" t="s">
+        <v>517</v>
+      </c>
+      <c r="D166" t="s">
+        <v>518</v>
+      </c>
+      <c r="E166" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>504</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="C167" t="s">
+        <v>505</v>
+      </c>
+      <c r="D167" t="s">
+        <v>521</v>
+      </c>
+      <c r="E167" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>504</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="C168" t="s">
+        <v>524</v>
+      </c>
+      <c r="D168" t="s">
+        <v>525</v>
+      </c>
+      <c r="E168" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>504</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C169" t="s">
+        <v>507</v>
+      </c>
+      <c r="D169" t="s">
+        <v>528</v>
+      </c>
+      <c r="E169" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>504</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="C170" t="s">
+        <v>507</v>
+      </c>
+      <c r="D170" t="s">
+        <v>530</v>
+      </c>
+      <c r="E170" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>504</v>
       </c>
     </row>
   </sheetData>
@@ -4551,8 +5107,29 @@
     <hyperlink ref="B147" r:id="rId146" xr:uid="{3F9E0322-7E09-43AA-8F15-EF33D5ADB81A}"/>
     <hyperlink ref="B148" r:id="rId147" xr:uid="{EBC507A3-FF30-4176-8BA0-D61700EEDBC3}"/>
     <hyperlink ref="B149" r:id="rId148" xr:uid="{79567438-1E0A-4BCB-B1A0-26A46A216025}"/>
+    <hyperlink ref="B150" r:id="rId149" xr:uid="{D19F4A83-DAB3-446E-B296-42091577E976}"/>
+    <hyperlink ref="B151" r:id="rId150" xr:uid="{564DB5B4-8B01-4369-881E-36F661825DE2}"/>
+    <hyperlink ref="B152" r:id="rId151" xr:uid="{B11C6491-E713-4B80-927B-296B165222E7}"/>
+    <hyperlink ref="B153" r:id="rId152" xr:uid="{2087099C-314E-4DA5-9D7E-8EDA74D7F320}"/>
+    <hyperlink ref="B154" r:id="rId153" xr:uid="{7A2AC823-D8B4-4D9B-BAFD-9C5CAD91B6E0}"/>
+    <hyperlink ref="B155" r:id="rId154" xr:uid="{87898188-FA0A-47B6-9EE7-A0BE661FD522}"/>
+    <hyperlink ref="B156" r:id="rId155" xr:uid="{C63B7672-DE7E-4789-8D0A-7C2668DBB2C2}"/>
+    <hyperlink ref="B157" r:id="rId156" xr:uid="{F92400D4-9BC7-414C-9A2B-CB16B6DC57BF}"/>
+    <hyperlink ref="B158" r:id="rId157" xr:uid="{96826412-85AF-46D7-8CEC-3ADE22E7C81B}"/>
+    <hyperlink ref="B160" r:id="rId158" xr:uid="{5BD1A6DC-7CD8-4E2C-8771-39AADA4E8464}"/>
+    <hyperlink ref="B159" r:id="rId159" xr:uid="{726A6E20-3490-4607-B900-C2478A77D9AE}"/>
+    <hyperlink ref="B161" r:id="rId160" xr:uid="{317201C8-DDE5-442B-947D-E526DAD7F918}"/>
+    <hyperlink ref="B162" r:id="rId161" xr:uid="{6015AD11-771A-46EE-8C79-BE171B357BBC}"/>
+    <hyperlink ref="B163" r:id="rId162" xr:uid="{012B8FA5-D836-418A-8D80-6BDDE843AD2B}"/>
+    <hyperlink ref="B164" r:id="rId163" xr:uid="{26FAFDA7-B003-42D4-83A8-C5BF1CE4A23B}"/>
+    <hyperlink ref="B165" r:id="rId164" xr:uid="{F9FBBD35-226C-4944-A4D0-F77799C09DDC}"/>
+    <hyperlink ref="B166" r:id="rId165" xr:uid="{13DD60EE-D924-4D2D-BF30-0DD4EC6F13E6}"/>
+    <hyperlink ref="B167" r:id="rId166" xr:uid="{4930ADED-957C-4F16-8D1C-609041E07895}"/>
+    <hyperlink ref="B168" r:id="rId167" xr:uid="{4190CFFF-5174-478C-A9D7-3272E97BC0D2}"/>
+    <hyperlink ref="B169" r:id="rId168" xr:uid="{055DDDA3-C649-4D7E-A883-3DEE5B71A8EB}"/>
+    <hyperlink ref="B170" r:id="rId169" xr:uid="{D51E7E84-1C26-4812-86E6-A1AACDBAC1AF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId149"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId170"/>
 </worksheet>
 </file>
--- a/Validation/Validation dataset.xlsx
+++ b/Validation/Validation dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Desktop\Universidad\Q6\PE\Trend-Analytics\Validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739DD697-727C-4640-ABA2-C77E3E78E286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9675969F-542B-41D2-A236-484E616078FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{51C03CC0-8AD4-4547-8F85-35A5BED8B5C2}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="642">
   <si>
     <t>POST</t>
   </si>
@@ -227,9 +227,6 @@
     <t>CC2228J11</t>
   </si>
   <si>
-    <t>CC0219M46</t>
-  </si>
-  <si>
     <t>https://www.pinterest.es/pin/11118330321576248/</t>
   </si>
   <si>
@@ -671,9 +668,6 @@
     <t>C804R02</t>
   </si>
   <si>
-    <t>CC0045R01</t>
-  </si>
-  <si>
     <t>CC0836R02</t>
   </si>
   <si>
@@ -797,9 +791,6 @@
     <t>AA1087J14</t>
   </si>
   <si>
-    <t>AA7133J03</t>
-  </si>
-  <si>
     <t>AA5097J03</t>
   </si>
   <si>
@@ -1286,9 +1277,6 @@
     <t>AA7925M42</t>
   </si>
   <si>
-    <t>AA7927S05</t>
-  </si>
-  <si>
     <t>https://www.pinterest.es/pin/2111131067568080/</t>
   </si>
   <si>
@@ -1626,13 +1614,358 @@
   </si>
   <si>
     <t>AA8186K03</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/1040050107665793341/</t>
+  </si>
+  <si>
+    <t>AA4393K12</t>
+  </si>
+  <si>
+    <t>AA8172K03</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/800937114986922329/</t>
+  </si>
+  <si>
+    <t>AA1758RF35</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/4925880833117256/</t>
+  </si>
+  <si>
+    <t>IT0072PR60</t>
+  </si>
+  <si>
+    <t>IT0071PR60</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/350506783506068927/</t>
+  </si>
+  <si>
+    <t>AA8171K03</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/53621051804200071/</t>
+  </si>
+  <si>
+    <t>AA3821R23</t>
+  </si>
+  <si>
+    <t>AA6616R34</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/27795722690646853/</t>
+  </si>
+  <si>
+    <t>AA0600C07</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/851039660841422924/</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/137922807329869862/</t>
+  </si>
+  <si>
+    <t>AA8177K03</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/1071575305060530568/</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/1136666393426784229/</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/56506170333088675/</t>
+  </si>
+  <si>
+    <t>CHAISE LONGUE</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/251779435408252547/</t>
+  </si>
+  <si>
+    <t>S727MN14</t>
+  </si>
+  <si>
+    <t>S626J03</t>
+  </si>
+  <si>
+    <t>S748MN14</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/66428163244794994/</t>
+  </si>
+  <si>
+    <t>S794R02</t>
+  </si>
+  <si>
+    <t>S598J03</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/684758318342288528/</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/138345019792158998/</t>
+  </si>
+  <si>
+    <t>S664JU85</t>
+  </si>
+  <si>
+    <t>S663PK03</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/900227412987937245/</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/292734044569620666/</t>
+  </si>
+  <si>
+    <t>S801_40D_G339</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/323274079510617703/</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/229261437273232755/</t>
+  </si>
+  <si>
+    <t>C838R33</t>
+  </si>
+  <si>
+    <t>S641R15</t>
+  </si>
+  <si>
+    <t>CC2100J12</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/292734044559560855/</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/292734044559560920/</t>
+  </si>
+  <si>
+    <t>S664JU03</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/703124560576039353/</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/212724782394797002/</t>
+  </si>
+  <si>
+    <t>S800_41_SO33</t>
+  </si>
+  <si>
+    <t>S801_40I_GR39</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/1064679168130204674/</t>
+  </si>
+  <si>
+    <t>S793_41_MN14</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/170785010860865085/</t>
+  </si>
+  <si>
+    <t>S573LN19</t>
+  </si>
+  <si>
+    <t>S663JU80</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/476889048054187719/</t>
+  </si>
+  <si>
+    <t>S521J03</t>
+  </si>
+  <si>
+    <t>S547JU85</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/313633561561984288/</t>
+  </si>
+  <si>
+    <t>S490PT86</t>
+  </si>
+  <si>
+    <t>S548JU85</t>
+  </si>
+  <si>
+    <t>S490PT09</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/727894358523582070/</t>
+  </si>
+  <si>
+    <t>S799_60_SN39</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/215539532157345767/</t>
+  </si>
+  <si>
+    <t>S793_40_MN14</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/195062227601610000/</t>
+  </si>
+  <si>
+    <t>S574SN39</t>
+  </si>
+  <si>
+    <t>S805_40I_PS33</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/1064679168130204677/</t>
+  </si>
+  <si>
+    <t>S548PK03</t>
+  </si>
+  <si>
+    <t>S587BB14</t>
+  </si>
+  <si>
+    <t>CC0579R02</t>
+  </si>
+  <si>
+    <t>CC0555S12</t>
+  </si>
+  <si>
+    <t>CESTO</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/8655424275904767/</t>
+  </si>
+  <si>
+    <t>AA7913J33</t>
+  </si>
+  <si>
+    <t>AA1165FN05</t>
+  </si>
+  <si>
+    <t>AA7277FN20</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/4714774600837948/</t>
+  </si>
+  <si>
+    <t>AA8968J33</t>
+  </si>
+  <si>
+    <t>AA7779J10</t>
+  </si>
+  <si>
+    <t>AA7780J25</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/80924124545190857/</t>
+  </si>
+  <si>
+    <t>LH0230J33</t>
+  </si>
+  <si>
+    <t>AA7777J05</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/52846995618920270/</t>
+  </si>
+  <si>
+    <t>AB0212FN33</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/319403798584119657/</t>
+  </si>
+  <si>
+    <t>AA7914J33</t>
+  </si>
+  <si>
+    <t>AA7960J39</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/622481979752959680/</t>
+  </si>
+  <si>
+    <t>AA1900FN46</t>
+  </si>
+  <si>
+    <t>AA7779J31</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/80924124545317438/</t>
+  </si>
+  <si>
+    <t>AA1209FN05</t>
+  </si>
+  <si>
+    <t>AA3943FN01</t>
+  </si>
+  <si>
+    <t>AB0175FN46</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/264164334383440839/</t>
+  </si>
+  <si>
+    <t>AA1092FN01</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/4503668368894917/</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/4151824647766839/</t>
+  </si>
+  <si>
+    <t>AA6771J39</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/58898707617596319/</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/176907091603762119/</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/71213237848708268/</t>
+  </si>
+  <si>
+    <t>YG0154R83</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/301178293838463191/</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/715016878343400442/</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/425801339768020111/</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/472033604705627403/</t>
+  </si>
+  <si>
+    <t>AA1210FN46</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/240098223873688656/</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/385409680613989526/</t>
+  </si>
+  <si>
+    <t>AB0198FN46</t>
+  </si>
+  <si>
+    <t>https://www.pinterest.es/pin/107734616077194452/</t>
+  </si>
+  <si>
+    <t>AA7912J33</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1650,6 +1983,28 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1672,21 +2027,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo 2" xfId="3" xr:uid="{EBA4CF5F-CA09-4498-AEF2-7E022F501BDD}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{FCD1F1AD-DC0C-4802-938C-D14FC7E41F47}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1998,17 +2358,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ECB3A60-1523-433E-9BFD-A546DCB0940A}">
-  <dimension ref="A1:E181"/>
+  <dimension ref="A1:E221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
+      <selection activeCell="D215" sqref="D215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="49" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="3" max="4" width="16.85546875" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2281,7 +2640,7 @@
         <v>63</v>
       </c>
       <c r="E16" t="s">
-        <v>64</v>
+        <v>598</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -2289,16 +2648,16 @@
         <v>5</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" t="s">
         <v>65</v>
       </c>
-      <c r="C17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>66</v>
-      </c>
-      <c r="E17" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -2306,13 +2665,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" t="s">
         <v>69</v>
-      </c>
-      <c r="D18" t="s">
-        <v>70</v>
       </c>
       <c r="E18" t="s">
         <v>63</v>
@@ -2323,16 +2682,16 @@
         <v>5</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C19" t="s">
         <v>53</v>
       </c>
       <c r="D19" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" t="s">
         <v>72</v>
-      </c>
-      <c r="E19" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -2340,7 +2699,7 @@
         <v>5</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C20" t="s">
         <v>54</v>
@@ -2357,13 +2716,13 @@
         <v>5</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" t="s">
+        <v>598</v>
+      </c>
+      <c r="D21" t="s">
         <v>76</v>
-      </c>
-      <c r="C21" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" t="s">
-        <v>77</v>
       </c>
       <c r="E21" t="s">
         <v>63</v>
@@ -2371,2590 +2730,3402 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" t="s">
         <v>79</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>80</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>81</v>
-      </c>
-      <c r="E22" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" t="s">
         <v>83</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>84</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>85</v>
-      </c>
-      <c r="E23" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" t="s">
         <v>84</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>85</v>
-      </c>
-      <c r="E24" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" t="s">
         <v>88</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>89</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>90</v>
-      </c>
-      <c r="E25" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C26" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" t="s">
         <v>84</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>85</v>
-      </c>
-      <c r="E26" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C27" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" t="s">
         <v>89</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>90</v>
-      </c>
-      <c r="E27" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C28" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" t="s">
         <v>84</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>85</v>
-      </c>
-      <c r="E28" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" t="s">
         <v>95</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>96</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>97</v>
-      </c>
-      <c r="E29" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" t="s">
         <v>99</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>100</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>101</v>
-      </c>
-      <c r="E30" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C31" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" t="s">
         <v>100</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>101</v>
-      </c>
-      <c r="E31" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" t="s">
         <v>104</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>105</v>
       </c>
-      <c r="D32" t="s">
-        <v>106</v>
-      </c>
       <c r="E32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" t="s">
         <v>107</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>108</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>109</v>
-      </c>
-      <c r="E33" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" t="s">
         <v>111</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>112</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>113</v>
-      </c>
-      <c r="E34" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C35" t="s">
+        <v>114</v>
+      </c>
+      <c r="D35" t="s">
         <v>115</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>116</v>
-      </c>
-      <c r="E35" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C36" t="s">
+        <v>118</v>
+      </c>
+      <c r="D36" t="s">
         <v>119</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>120</v>
-      </c>
-      <c r="E36" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C37" t="s">
         <v>123</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>124</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>125</v>
-      </c>
-      <c r="E37" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C38" t="s">
+        <v>100</v>
+      </c>
+      <c r="D38" t="s">
         <v>127</v>
       </c>
-      <c r="C38" t="s">
-        <v>101</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>128</v>
-      </c>
-      <c r="E38" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C39" t="s">
+        <v>99</v>
+      </c>
+      <c r="D39" t="s">
+        <v>100</v>
+      </c>
+      <c r="E39" t="s">
         <v>130</v>
-      </c>
-      <c r="C39" t="s">
-        <v>100</v>
-      </c>
-      <c r="D39" t="s">
-        <v>101</v>
-      </c>
-      <c r="E39" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C40" t="s">
+        <v>128</v>
+      </c>
+      <c r="D40" t="s">
         <v>132</v>
       </c>
-      <c r="C40" t="s">
-        <v>129</v>
-      </c>
-      <c r="D40" t="s">
-        <v>133</v>
-      </c>
       <c r="E40" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" t="s">
+        <v>128</v>
+      </c>
+      <c r="D41" t="s">
+        <v>95</v>
+      </c>
+      <c r="E41" t="s">
         <v>134</v>
-      </c>
-      <c r="C41" t="s">
-        <v>129</v>
-      </c>
-      <c r="D41" t="s">
-        <v>96</v>
-      </c>
-      <c r="E41" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>135</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C42" t="s">
         <v>136</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>137</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>138</v>
-      </c>
-      <c r="E42" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C43" t="s">
         <v>141</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>142</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>143</v>
-      </c>
-      <c r="E43" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C44" t="s">
+        <v>148</v>
+      </c>
+      <c r="D44" t="s">
         <v>149</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>150</v>
-      </c>
-      <c r="E44" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C45" t="s">
+        <v>151</v>
+      </c>
+      <c r="D45" t="s">
         <v>152</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>153</v>
-      </c>
-      <c r="E45" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D46" t="s">
+        <v>154</v>
+      </c>
+      <c r="E46" t="s">
         <v>155</v>
-      </c>
-      <c r="E46" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C47" t="s">
+        <v>158</v>
+      </c>
+      <c r="D47" t="s">
         <v>159</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>160</v>
-      </c>
-      <c r="E47" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C48" t="s">
+        <v>161</v>
+      </c>
+      <c r="D48" t="s">
+        <v>152</v>
+      </c>
+      <c r="E48" t="s">
         <v>162</v>
-      </c>
-      <c r="D48" t="s">
-        <v>153</v>
-      </c>
-      <c r="E48" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C49" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D49" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E49" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C50" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D50" t="s">
+        <v>167</v>
+      </c>
+      <c r="E50" t="s">
         <v>168</v>
-      </c>
-      <c r="E50" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C51" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D51" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E51" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C52" t="s">
+        <v>169</v>
+      </c>
+      <c r="D52" t="s">
         <v>170</v>
       </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>171</v>
-      </c>
-      <c r="E52" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C53" t="s">
         <v>176</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
+        <v>168</v>
+      </c>
+      <c r="E53" t="s">
         <v>177</v>
-      </c>
-      <c r="D53" t="s">
-        <v>169</v>
-      </c>
-      <c r="E53" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C54" t="s">
+        <v>181</v>
+      </c>
+      <c r="D54" t="s">
         <v>182</v>
       </c>
-      <c r="D54" t="s">
-        <v>183</v>
-      </c>
       <c r="E54" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C55" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D55" t="s">
+        <v>178</v>
+      </c>
+      <c r="E55" t="s">
         <v>179</v>
-      </c>
-      <c r="E55" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C56" t="s">
+        <v>188</v>
+      </c>
+      <c r="D56" t="s">
         <v>189</v>
       </c>
-      <c r="D56" t="s">
+      <c r="E56" t="s">
         <v>190</v>
-      </c>
-      <c r="E56" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C57" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D57" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E57" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C58" t="s">
+        <v>179</v>
+      </c>
+      <c r="D58" t="s">
+        <v>149</v>
+      </c>
+      <c r="E58" t="s">
         <v>185</v>
-      </c>
-      <c r="C58" t="s">
-        <v>180</v>
-      </c>
-      <c r="D58" t="s">
-        <v>150</v>
-      </c>
-      <c r="E58" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D59" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E59" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C60" t="s">
         <v>193</v>
       </c>
-      <c r="C60" t="s">
-        <v>194</v>
-      </c>
       <c r="D60" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E60" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C61" t="s">
+        <v>194</v>
+      </c>
+      <c r="D61" t="s">
         <v>195</v>
       </c>
-      <c r="D61" t="s">
+      <c r="E61" t="s">
         <v>196</v>
-      </c>
-      <c r="E61" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>197</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="C62" t="s">
         <v>199</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>200</v>
       </c>
-      <c r="D62" t="s">
+      <c r="E62" t="s">
         <v>201</v>
-      </c>
-      <c r="E62" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C63" t="s">
         <v>203</v>
-      </c>
-      <c r="C63" t="s">
-        <v>204</v>
       </c>
       <c r="D63" t="s">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B64" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C64" t="s">
         <v>206</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>207</v>
       </c>
-      <c r="D64" t="s">
+      <c r="E64" t="s">
         <v>208</v>
-      </c>
-      <c r="E64" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C65" t="s">
         <v>210</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
+        <v>597</v>
+      </c>
+      <c r="E65" t="s">
         <v>211</v>
-      </c>
-      <c r="D65" t="s">
-        <v>212</v>
-      </c>
-      <c r="E65" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C66" t="s">
+        <v>213</v>
+      </c>
+      <c r="D66" t="s">
+        <v>211</v>
+      </c>
+      <c r="E66" t="s">
         <v>214</v>
-      </c>
-      <c r="C66" t="s">
-        <v>215</v>
-      </c>
-      <c r="D66" t="s">
-        <v>213</v>
-      </c>
-      <c r="E66" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C67" t="s">
+        <v>216</v>
+      </c>
+      <c r="D67" t="s">
         <v>217</v>
       </c>
-      <c r="C67" t="s">
+      <c r="E67" t="s">
         <v>218</v>
-      </c>
-      <c r="D67" t="s">
-        <v>219</v>
-      </c>
-      <c r="E67" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C68" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D68" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E68" t="s">
-        <v>212</v>
+        <v>597</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C69" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D69" t="s">
+        <v>203</v>
+      </c>
+      <c r="E69" t="s">
         <v>204</v>
-      </c>
-      <c r="E69" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C70" t="s">
+        <v>224</v>
+      </c>
+      <c r="D70" t="s">
         <v>225</v>
       </c>
-      <c r="C70" t="s">
+      <c r="E70" t="s">
         <v>226</v>
-      </c>
-      <c r="D70" t="s">
-        <v>227</v>
-      </c>
-      <c r="E70" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C71" t="s">
+        <v>224</v>
+      </c>
+      <c r="D71" t="s">
+        <v>225</v>
+      </c>
+      <c r="E71" t="s">
         <v>226</v>
-      </c>
-      <c r="D71" t="s">
-        <v>227</v>
-      </c>
-      <c r="E71" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C72" t="s">
+        <v>229</v>
+      </c>
+      <c r="D72" t="s">
         <v>230</v>
       </c>
-      <c r="C72" t="s">
+      <c r="E72" t="s">
         <v>231</v>
-      </c>
-      <c r="D72" t="s">
-        <v>232</v>
-      </c>
-      <c r="E72" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C73" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D73" t="s">
-        <v>212</v>
+        <v>597</v>
       </c>
       <c r="E73" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C74" t="s">
-        <v>212</v>
+        <v>597</v>
       </c>
       <c r="D74" t="s">
+        <v>203</v>
+      </c>
+      <c r="E74" t="s">
         <v>204</v>
-      </c>
-      <c r="E74" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C75" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D75" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E75" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C76" t="s">
-        <v>212</v>
+        <v>597</v>
       </c>
       <c r="D76" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E76" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C77" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D77" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E77" t="s">
-        <v>212</v>
+        <v>597</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C78" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D78" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E78" t="s">
-        <v>212</v>
+        <v>597</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C79" t="s">
+        <v>242</v>
+      </c>
+      <c r="D79" t="s">
         <v>243</v>
       </c>
-      <c r="C79" t="s">
+      <c r="E79" t="s">
         <v>244</v>
-      </c>
-      <c r="D79" t="s">
-        <v>245</v>
-      </c>
-      <c r="E79" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C80" t="s">
+        <v>246</v>
+      </c>
+      <c r="D80" t="s">
+        <v>207</v>
+      </c>
+      <c r="E80" t="s">
         <v>247</v>
-      </c>
-      <c r="C80" t="s">
-        <v>248</v>
-      </c>
-      <c r="D80" t="s">
-        <v>208</v>
-      </c>
-      <c r="E80" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C81" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D81" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E81" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>250</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C82" t="s">
+        <v>251</v>
+      </c>
+      <c r="D82" t="s">
+        <v>283</v>
+      </c>
+      <c r="E82" t="s">
         <v>252</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="C82" t="s">
-        <v>253</v>
-      </c>
-      <c r="D82" t="s">
-        <v>254</v>
-      </c>
-      <c r="E82" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>250</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C83" t="s">
         <v>252</v>
       </c>
-      <c r="B83" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
+        <v>254</v>
+      </c>
+      <c r="E83" t="s">
         <v>255</v>
-      </c>
-      <c r="D83" t="s">
-        <v>257</v>
-      </c>
-      <c r="E83" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B84" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C84" t="s">
+        <v>258</v>
+      </c>
+      <c r="D84" t="s">
+        <v>259</v>
+      </c>
+      <c r="E84" t="s">
         <v>260</v>
-      </c>
-      <c r="C84" t="s">
-        <v>261</v>
-      </c>
-      <c r="D84" t="s">
-        <v>262</v>
-      </c>
-      <c r="E84" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B85" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C85" t="s">
+        <v>266</v>
+      </c>
+      <c r="D85" t="s">
         <v>268</v>
       </c>
-      <c r="C85" t="s">
-        <v>269</v>
-      </c>
-      <c r="D85" t="s">
-        <v>271</v>
-      </c>
       <c r="E85" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B86" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C86" t="s">
+        <v>262</v>
+      </c>
+      <c r="D86" t="s">
+        <v>263</v>
+      </c>
+      <c r="E86" t="s">
         <v>264</v>
-      </c>
-      <c r="C86" t="s">
-        <v>265</v>
-      </c>
-      <c r="D86" t="s">
-        <v>266</v>
-      </c>
-      <c r="E86" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C87" t="s">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="D87" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E87" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C88" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D88" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E88" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B89" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C89" t="s">
         <v>277</v>
       </c>
-      <c r="C89" t="s">
-        <v>280</v>
-      </c>
       <c r="D89" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E89" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B90" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C90" t="s">
+        <v>277</v>
+      </c>
+      <c r="D90" t="s">
         <v>276</v>
       </c>
-      <c r="C90" t="s">
-        <v>280</v>
-      </c>
-      <c r="D90" t="s">
-        <v>279</v>
-      </c>
       <c r="E90" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C91" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D91" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E91" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C92" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D92" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E92" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B93" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C93" t="s">
+        <v>262</v>
+      </c>
+      <c r="D93" t="s">
+        <v>286</v>
+      </c>
+      <c r="E93" t="s">
         <v>287</v>
-      </c>
-      <c r="C93" t="s">
-        <v>265</v>
-      </c>
-      <c r="D93" t="s">
-        <v>289</v>
-      </c>
-      <c r="E93" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C94" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D94" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E94" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>250</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C95" t="s">
+        <v>289</v>
+      </c>
+      <c r="D95" t="s">
         <v>252</v>
       </c>
-      <c r="B95" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="C95" t="s">
-        <v>292</v>
-      </c>
-      <c r="D95" t="s">
-        <v>255</v>
-      </c>
       <c r="E95" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C96" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D96" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E96" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B97" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C97" t="s">
+        <v>268</v>
+      </c>
+      <c r="D97" t="s">
+        <v>296</v>
+      </c>
+      <c r="E97" t="s">
         <v>297</v>
-      </c>
-      <c r="C97" t="s">
-        <v>271</v>
-      </c>
-      <c r="D97" t="s">
-        <v>299</v>
-      </c>
-      <c r="E97" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C98" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D98" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E98" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C99" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D99" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E99" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C100" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D100" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E100" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B101" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C101" t="s">
+        <v>302</v>
+      </c>
+      <c r="D101" t="s">
+        <v>303</v>
+      </c>
+      <c r="E101" t="s">
         <v>304</v>
-      </c>
-      <c r="C101" t="s">
-        <v>305</v>
-      </c>
-      <c r="D101" t="s">
-        <v>306</v>
-      </c>
-      <c r="E101" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>305</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C102" t="s">
         <v>308</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="D102" t="s">
         <v>309</v>
       </c>
-      <c r="C102" t="s">
-        <v>311</v>
-      </c>
-      <c r="D102" t="s">
-        <v>312</v>
-      </c>
       <c r="E102" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C103" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D103" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E103" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C104" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D104" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E104" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B105" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C105" t="s">
+        <v>320</v>
+      </c>
+      <c r="D105" t="s">
+        <v>321</v>
+      </c>
+      <c r="E105" t="s">
         <v>322</v>
-      </c>
-      <c r="C105" t="s">
-        <v>323</v>
-      </c>
-      <c r="D105" t="s">
-        <v>324</v>
-      </c>
-      <c r="E105" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C106" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D106" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E106" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B107" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C107" t="s">
+        <v>328</v>
+      </c>
+      <c r="D107" t="s">
+        <v>325</v>
+      </c>
+      <c r="E107" t="s">
         <v>329</v>
-      </c>
-      <c r="C107" t="s">
-        <v>331</v>
-      </c>
-      <c r="D107" t="s">
-        <v>328</v>
-      </c>
-      <c r="E107" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B108" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="C108" t="s">
         <v>330</v>
       </c>
-      <c r="C108" t="s">
-        <v>333</v>
-      </c>
       <c r="D108" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E108" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B109" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C109" t="s">
+        <v>335</v>
+      </c>
+      <c r="D109" t="s">
+        <v>336</v>
+      </c>
+      <c r="E109" t="s">
         <v>337</v>
-      </c>
-      <c r="C109" t="s">
-        <v>338</v>
-      </c>
-      <c r="D109" t="s">
-        <v>339</v>
-      </c>
-      <c r="E109" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C110" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D110" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="E110" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B111" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C111" t="s">
+        <v>344</v>
+      </c>
+      <c r="D111" t="s">
         <v>345</v>
       </c>
-      <c r="C111" t="s">
-        <v>347</v>
-      </c>
-      <c r="D111" t="s">
-        <v>348</v>
-      </c>
       <c r="E111" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C112" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D112" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E112" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B113" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="C113" t="s">
+        <v>349</v>
+      </c>
+      <c r="D113" t="s">
+        <v>350</v>
+      </c>
+      <c r="E113" t="s">
         <v>351</v>
-      </c>
-      <c r="C113" t="s">
-        <v>352</v>
-      </c>
-      <c r="D113" t="s">
-        <v>353</v>
-      </c>
-      <c r="E113" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C114" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D114" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E114" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B115" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="C115" t="s">
+        <v>356</v>
+      </c>
+      <c r="D115" t="s">
         <v>357</v>
       </c>
-      <c r="C115" t="s">
-        <v>359</v>
-      </c>
-      <c r="D115" t="s">
-        <v>360</v>
-      </c>
       <c r="E115" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B116" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C116" t="s">
         <v>358</v>
       </c>
-      <c r="C116" t="s">
-        <v>361</v>
-      </c>
       <c r="D116" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E116" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C117" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D117" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E117" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B118" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="C118" t="s">
+        <v>361</v>
+      </c>
+      <c r="D118" t="s">
         <v>362</v>
       </c>
-      <c r="C118" t="s">
-        <v>364</v>
-      </c>
-      <c r="D118" t="s">
-        <v>365</v>
-      </c>
       <c r="E118" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B119" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C119" t="s">
+        <v>325</v>
+      </c>
+      <c r="D119" t="s">
         <v>368</v>
       </c>
-      <c r="C119" t="s">
-        <v>328</v>
-      </c>
-      <c r="D119" t="s">
-        <v>371</v>
-      </c>
       <c r="E119" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B120" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="C120" t="s">
         <v>369</v>
       </c>
-      <c r="C120" t="s">
-        <v>372</v>
-      </c>
       <c r="D120" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E120" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C121" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D121" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E121" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C122" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D122" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E122" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
+        <v>371</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C123" t="s">
         <v>374</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="D123" t="s">
+        <v>375</v>
+      </c>
+      <c r="E123" t="s">
         <v>376</v>
-      </c>
-      <c r="C123" t="s">
-        <v>377</v>
-      </c>
-      <c r="D123" t="s">
-        <v>378</v>
-      </c>
-      <c r="E123" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B124" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="C124" t="s">
+        <v>382</v>
+      </c>
+      <c r="D124" t="s">
         <v>383</v>
       </c>
-      <c r="C124" t="s">
-        <v>385</v>
-      </c>
-      <c r="D124" t="s">
-        <v>386</v>
-      </c>
       <c r="E124" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C125" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D125" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E125" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="C126" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D126" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E126" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B127" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="C127" t="s">
+        <v>389</v>
+      </c>
+      <c r="D127" t="s">
         <v>390</v>
       </c>
-      <c r="C127" t="s">
-        <v>392</v>
-      </c>
-      <c r="D127" t="s">
-        <v>393</v>
-      </c>
       <c r="E127" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
+        <v>371</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C128" t="s">
         <v>374</v>
       </c>
-      <c r="B128" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="C128" t="s">
-        <v>377</v>
-      </c>
       <c r="D128" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E128" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B129" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="C129" t="s">
+        <v>398</v>
+      </c>
+      <c r="D129" t="s">
+        <v>399</v>
+      </c>
+      <c r="E129" t="s">
         <v>400</v>
-      </c>
-      <c r="C129" t="s">
-        <v>401</v>
-      </c>
-      <c r="D129" t="s">
-        <v>402</v>
-      </c>
-      <c r="E129" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C130" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D130" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="E130" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C131" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D131" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E131" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B132" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="C132" t="s">
         <v>406</v>
       </c>
-      <c r="C132" t="s">
-        <v>409</v>
-      </c>
       <c r="D132" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E132" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B133" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="C133" t="s">
+        <v>412</v>
+      </c>
+      <c r="D133" t="s">
         <v>413</v>
       </c>
-      <c r="C133" t="s">
-        <v>415</v>
-      </c>
-      <c r="D133" t="s">
-        <v>416</v>
-      </c>
       <c r="E133" t="s">
-        <v>417</v>
+        <v>383</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
+        <v>371</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C134" t="s">
         <v>374</v>
       </c>
-      <c r="B134" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="C134" t="s">
+      <c r="D134" t="s">
+        <v>411</v>
+      </c>
+      <c r="E134" t="s">
         <v>377</v>
-      </c>
-      <c r="D134" t="s">
-        <v>414</v>
-      </c>
-      <c r="E134" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C135" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D135" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E135" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B136" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="C136" t="s">
         <v>418</v>
       </c>
-      <c r="C136" t="s">
-        <v>422</v>
-      </c>
       <c r="D136" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="E136" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B137" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="C137" t="s">
+        <v>424</v>
+      </c>
+      <c r="D137" t="s">
+        <v>425</v>
+      </c>
+      <c r="E137" t="s">
         <v>426</v>
-      </c>
-      <c r="C137" t="s">
-        <v>428</v>
-      </c>
-      <c r="D137" t="s">
-        <v>429</v>
-      </c>
-      <c r="E137" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
+        <v>371</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="C138" t="s">
         <v>374</v>
       </c>
-      <c r="B138" s="3" t="s">
-        <v>425</v>
-      </c>
-      <c r="C138" t="s">
+      <c r="D138" t="s">
+        <v>411</v>
+      </c>
+      <c r="E138" t="s">
         <v>377</v>
-      </c>
-      <c r="D138" t="s">
-        <v>414</v>
-      </c>
-      <c r="E138" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C139" t="s">
-        <v>417</v>
+        <v>383</v>
       </c>
       <c r="D139" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="E139" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C140" t="s">
+        <v>383</v>
+      </c>
+      <c r="D140" t="s">
+        <v>384</v>
+      </c>
+      <c r="E140" t="s">
         <v>386</v>
-      </c>
-      <c r="D140" t="s">
-        <v>387</v>
-      </c>
-      <c r="E140" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C141" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D141" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E141" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
+        <v>429</v>
+      </c>
+      <c r="B142" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="B142" s="3" t="s">
-        <v>437</v>
-      </c>
       <c r="C142" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="D142" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E142" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C143" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D143" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="E143" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C144" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="D144" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="E144" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="C145" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="D145" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="E145" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C146" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="D146" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="E146" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="C147" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="D147" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="E147" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C148" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D148" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="E148" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C149" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="D149" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="E149" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C150" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="D150" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="E150" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C151" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="D151" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="E151" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C152" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D152" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="E152" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C153" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="D153" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="E153" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C154" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="D154" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E154" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C155" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D155" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="E155" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="C156" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D156" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="E156" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="C157" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D157" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="E157" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C158" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="D158" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="E158" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C159" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="D159" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="E159" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C160" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="D160" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="E160" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="C161" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D161" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="E161" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B162" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="C162" t="s">
+        <v>501</v>
+      </c>
+      <c r="D162" t="s">
+        <v>502</v>
+      </c>
+      <c r="E162" t="s">
         <v>503</v>
-      </c>
-      <c r="C162" t="s">
-        <v>505</v>
-      </c>
-      <c r="D162" t="s">
-        <v>506</v>
-      </c>
-      <c r="E162" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
+        <v>500</v>
+      </c>
+      <c r="B163" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="B163" s="3" t="s">
-        <v>508</v>
-      </c>
       <c r="C163" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="D163" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="E163" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C164" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="D164" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="E164" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="C165" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="D165" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="E165" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C166" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D166" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="E166" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="C167" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D167" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="E167" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="C168" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="D168" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E168" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="C169" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D169" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="E169" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C170" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D170" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="E170" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>504</v>
+        <v>500</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C171" t="s">
+        <v>528</v>
+      </c>
+      <c r="D171" t="s">
+        <v>503</v>
+      </c>
+      <c r="E171" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>504</v>
+        <v>500</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="C172" t="s">
+        <v>528</v>
+      </c>
+      <c r="D172" t="s">
+        <v>531</v>
+      </c>
+      <c r="E172" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>504</v>
+        <v>500</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="C173" t="s">
+        <v>533</v>
+      </c>
+      <c r="D173" t="s">
+        <v>529</v>
+      </c>
+      <c r="E173" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>504</v>
+        <v>500</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="C174" t="s">
+        <v>526</v>
+      </c>
+      <c r="D174" t="s">
+        <v>536</v>
+      </c>
+      <c r="E174" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>504</v>
+        <v>500</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="C175" t="s">
+        <v>538</v>
+      </c>
+      <c r="D175" t="s">
+        <v>503</v>
+      </c>
+      <c r="E175" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="C176" t="s">
+        <v>538</v>
+      </c>
+      <c r="D176" t="s">
+        <v>503</v>
+      </c>
+      <c r="E176" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="C177" t="s">
+        <v>541</v>
+      </c>
+      <c r="D177" t="s">
+        <v>517</v>
+      </c>
+      <c r="E177" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="C178" t="s">
+        <v>544</v>
+      </c>
+      <c r="D178" t="s">
+        <v>503</v>
+      </c>
+      <c r="E178" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="C179" t="s">
+        <v>544</v>
+      </c>
+      <c r="D179" t="s">
+        <v>503</v>
+      </c>
+      <c r="E179" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="C180" t="s">
+        <v>541</v>
+      </c>
+      <c r="D180" t="s">
+        <v>517</v>
+      </c>
+      <c r="E180" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>504</v>
+        <v>500</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="C181" t="s">
+        <v>544</v>
+      </c>
+      <c r="D181" t="s">
+        <v>503</v>
+      </c>
+      <c r="E181" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>548</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="C182" t="s">
+        <v>550</v>
+      </c>
+      <c r="D182" t="s">
+        <v>551</v>
+      </c>
+      <c r="E182" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>548</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="C183" t="s">
+        <v>554</v>
+      </c>
+      <c r="D183" t="s">
+        <v>108</v>
+      </c>
+      <c r="E183" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>548</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="C184" t="s">
+        <v>550</v>
+      </c>
+      <c r="D184" t="s">
+        <v>551</v>
+      </c>
+      <c r="E184" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>548</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="C185" t="s">
+        <v>558</v>
+      </c>
+      <c r="D185" t="s">
+        <v>551</v>
+      </c>
+      <c r="E185" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>548</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="C186" t="s">
+        <v>550</v>
+      </c>
+      <c r="D186" t="s">
+        <v>551</v>
+      </c>
+      <c r="E186" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>548</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="C187" t="s">
+        <v>99</v>
+      </c>
+      <c r="D187" t="s">
+        <v>107</v>
+      </c>
+      <c r="E187" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>548</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="C188" t="s">
+        <v>550</v>
+      </c>
+      <c r="D188" t="s">
+        <v>551</v>
+      </c>
+      <c r="E188" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>548</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="C189" t="s">
+        <v>565</v>
+      </c>
+      <c r="D189" t="s">
+        <v>566</v>
+      </c>
+      <c r="E189" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>548</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="C190" t="s">
+        <v>99</v>
+      </c>
+      <c r="D190" t="s">
+        <v>107</v>
+      </c>
+      <c r="E190" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>548</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="C191" t="s">
+        <v>570</v>
+      </c>
+      <c r="D191" t="s">
+        <v>108</v>
+      </c>
+      <c r="E191" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>548</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="C192" t="s">
+        <v>570</v>
+      </c>
+      <c r="D192" t="s">
+        <v>108</v>
+      </c>
+      <c r="E192" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>548</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="C193" t="s">
+        <v>573</v>
+      </c>
+      <c r="D193" t="s">
+        <v>99</v>
+      </c>
+      <c r="E193" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>548</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="C194" t="s">
+        <v>570</v>
+      </c>
+      <c r="D194" t="s">
+        <v>576</v>
+      </c>
+      <c r="E194" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>548</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="C195" t="s">
+        <v>95</v>
+      </c>
+      <c r="D195" t="s">
+        <v>578</v>
+      </c>
+      <c r="E195" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>548</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="C196" t="s">
+        <v>104</v>
+      </c>
+      <c r="D196" t="s">
+        <v>581</v>
+      </c>
+      <c r="E196" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>548</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="C197" t="s">
+        <v>584</v>
+      </c>
+      <c r="D197" t="s">
+        <v>585</v>
+      </c>
+      <c r="E197" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>548</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="C198" t="s">
+        <v>80</v>
+      </c>
+      <c r="D198" t="s">
+        <v>588</v>
+      </c>
+      <c r="E198" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>548</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="C199" t="s">
+        <v>576</v>
+      </c>
+      <c r="D199" t="s">
+        <v>590</v>
+      </c>
+      <c r="E199" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>548</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="C200" t="s">
+        <v>99</v>
+      </c>
+      <c r="D200" t="s">
+        <v>592</v>
+      </c>
+      <c r="E200" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>548</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="C201" t="s">
+        <v>595</v>
+      </c>
+      <c r="D201" t="s">
+        <v>590</v>
+      </c>
+      <c r="E201" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>599</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="C202" t="s">
+        <v>601</v>
+      </c>
+      <c r="D202" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="E202" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>599</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="C203" t="s">
+        <v>605</v>
+      </c>
+      <c r="D203" t="s">
+        <v>606</v>
+      </c>
+      <c r="E203" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>599</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="C204" t="s">
+        <v>607</v>
+      </c>
+      <c r="D204" t="s">
+        <v>609</v>
+      </c>
+      <c r="E204" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>599</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="C205" t="s">
+        <v>612</v>
+      </c>
+      <c r="D205" t="s">
+        <v>610</v>
+      </c>
+      <c r="E205" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>599</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="C206" t="s">
+        <v>614</v>
+      </c>
+      <c r="D206" t="s">
+        <v>615</v>
+      </c>
+      <c r="E206" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>599</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="C207" t="s">
+        <v>617</v>
+      </c>
+      <c r="D207" t="s">
+        <v>612</v>
+      </c>
+      <c r="E207" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>599</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="C208" t="s">
+        <v>620</v>
+      </c>
+      <c r="D208" t="s">
+        <v>621</v>
+      </c>
+      <c r="E208" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>599</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="C209" t="s">
+        <v>612</v>
+      </c>
+      <c r="D209" t="s">
+        <v>614</v>
+      </c>
+      <c r="E209" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>599</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="C210" t="s">
+        <v>614</v>
+      </c>
+      <c r="D210" t="s">
+        <v>615</v>
+      </c>
+      <c r="E210" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>599</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="C211" t="s">
+        <v>627</v>
+      </c>
+      <c r="D211" t="s">
+        <v>607</v>
+      </c>
+      <c r="E211" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>599</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="C212" t="s">
+        <v>610</v>
+      </c>
+      <c r="D212" t="s">
+        <v>609</v>
+      </c>
+      <c r="E212" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>599</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="C213" t="s">
+        <v>618</v>
+      </c>
+      <c r="D213" t="s">
+        <v>624</v>
+      </c>
+      <c r="E213" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>599</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="C214" t="s">
+        <v>622</v>
+      </c>
+      <c r="D214" t="s">
+        <v>620</v>
+      </c>
+      <c r="E214" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>599</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="C215" t="s">
+        <v>614</v>
+      </c>
+      <c r="D215" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="E215" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>599</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="C216" t="s">
+        <v>620</v>
+      </c>
+      <c r="D216" t="s">
+        <v>605</v>
+      </c>
+      <c r="E216" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>599</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="C217" t="s">
+        <v>601</v>
+      </c>
+      <c r="D217" t="s">
+        <v>607</v>
+      </c>
+      <c r="E217" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>599</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="C218" t="s">
+        <v>620</v>
+      </c>
+      <c r="D218" t="s">
+        <v>621</v>
+      </c>
+      <c r="E218" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>599</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="C219" t="s">
+        <v>620</v>
+      </c>
+      <c r="D219" t="s">
+        <v>605</v>
+      </c>
+      <c r="E219" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>599</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="C220" t="s">
+        <v>617</v>
+      </c>
+      <c r="D220" t="s">
+        <v>639</v>
+      </c>
+      <c r="E220" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>599</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="C221" t="s">
+        <v>607</v>
+      </c>
+      <c r="D221" t="s">
+        <v>609</v>
+      </c>
+      <c r="E221" t="s">
+        <v>641</v>
       </c>
     </row>
   </sheetData>
@@ -5128,8 +6299,41 @@
     <hyperlink ref="B168" r:id="rId167" xr:uid="{4190CFFF-5174-478C-A9D7-3272E97BC0D2}"/>
     <hyperlink ref="B169" r:id="rId168" xr:uid="{055DDDA3-C649-4D7E-A883-3DEE5B71A8EB}"/>
     <hyperlink ref="B170" r:id="rId169" xr:uid="{D51E7E84-1C26-4812-86E6-A1AACDBAC1AF}"/>
+    <hyperlink ref="B171" r:id="rId170" xr:uid="{6A01F96C-9D4E-4E94-8E2E-21A5C4A6220B}"/>
+    <hyperlink ref="B172" r:id="rId171" xr:uid="{DAC324C3-EA28-43A7-B077-1698B33E55E6}"/>
+    <hyperlink ref="B173" r:id="rId172" xr:uid="{F9D60C54-6909-4153-AB47-8811102E5700}"/>
+    <hyperlink ref="B174" r:id="rId173" xr:uid="{03107C39-092B-42FB-92B0-AB543599F25B}"/>
+    <hyperlink ref="B175" r:id="rId174" xr:uid="{00D18314-F0B2-49A0-A7B6-E504348CB5F7}"/>
+    <hyperlink ref="B176" r:id="rId175" xr:uid="{7993AC64-2174-408D-A1EA-F14191465B4E}"/>
+    <hyperlink ref="B177" r:id="rId176" xr:uid="{BF124A12-06BF-4431-9EEB-DD08D0A1031D}"/>
+    <hyperlink ref="B178" r:id="rId177" xr:uid="{1B1EB193-9C22-4945-9DA4-C9509B4EBAF8}"/>
+    <hyperlink ref="B179" r:id="rId178" xr:uid="{1C532279-4B6C-48B6-9BF8-9C385586F596}"/>
+    <hyperlink ref="B180" r:id="rId179" xr:uid="{C55E0C49-A8AB-4547-AB4F-474E451A2C09}"/>
+    <hyperlink ref="B181" r:id="rId180" xr:uid="{0BAFAD4C-341E-4DC0-BC60-1FC76556B5B2}"/>
+    <hyperlink ref="B182" r:id="rId181" xr:uid="{22C51337-1281-419E-B53E-7759BBEA4FDF}"/>
+    <hyperlink ref="B183" r:id="rId182" xr:uid="{1639F122-7E56-4000-8F1D-4044B9651BBF}"/>
+    <hyperlink ref="B184" r:id="rId183" xr:uid="{AF876143-CF1A-476C-8A38-A4285483C481}"/>
+    <hyperlink ref="B185" r:id="rId184" xr:uid="{D2F6C792-8CD1-48E3-8567-37B02477483B}"/>
+    <hyperlink ref="B186" r:id="rId185" xr:uid="{8FFA99C3-42B9-4510-9D9A-8435B54084F9}"/>
+    <hyperlink ref="B187" r:id="rId186" xr:uid="{3BF30A51-68B6-4E75-8719-8CA9F5B32033}"/>
+    <hyperlink ref="B189" r:id="rId187" xr:uid="{F1436B60-D950-4440-95E3-A0327019811F}"/>
+    <hyperlink ref="B188" r:id="rId188" xr:uid="{D0BB5322-9C9F-4FA3-B0C6-3E2A31FE60C0}"/>
+    <hyperlink ref="B190" r:id="rId189" xr:uid="{AD57383A-85D1-45E4-87DB-E38F791D8901}"/>
+    <hyperlink ref="B191" r:id="rId190" xr:uid="{797263C5-97D3-4A4F-A194-A80EA628E979}"/>
+    <hyperlink ref="B192" r:id="rId191" xr:uid="{689E1B67-4740-478F-9DB9-2F43F2F31E7B}"/>
+    <hyperlink ref="B193" r:id="rId192" xr:uid="{78E1D451-6BAF-4D9D-A42C-764AEE69BB4C}"/>
+    <hyperlink ref="B194" r:id="rId193" xr:uid="{0BD0275E-258A-4123-9619-44A1A60A6B46}"/>
+    <hyperlink ref="B195" r:id="rId194" xr:uid="{68833D68-15B1-4665-AD77-84EC5520033F}"/>
+    <hyperlink ref="B196" r:id="rId195" xr:uid="{5C1DF9CF-2DD9-4CB4-B46D-E2B2302B58D5}"/>
+    <hyperlink ref="B197" r:id="rId196" xr:uid="{B409BFAF-86F5-4B7C-A306-339B4A6AF2CE}"/>
+    <hyperlink ref="B198" r:id="rId197" xr:uid="{AC653B67-8984-481E-8C66-88DD95440A14}"/>
+    <hyperlink ref="B199" r:id="rId198" xr:uid="{DA298075-197C-4641-80AD-05E102E6C1A0}"/>
+    <hyperlink ref="B200" r:id="rId199" xr:uid="{62C9E649-3FE8-4946-9DE8-ED00E4B6B750}"/>
+    <hyperlink ref="B201" r:id="rId200" xr:uid="{90258823-4D35-4E5F-A6D0-1E62E6A971D8}"/>
+    <hyperlink ref="B203" r:id="rId201" xr:uid="{4E3AC090-7E24-BC44-B22D-BDF6432C272D}"/>
+    <hyperlink ref="B204" r:id="rId202" xr:uid="{A1EA0EA7-2453-F841-A48C-72BAD18E6390}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId170"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId203"/>
 </worksheet>
 </file>
--- a/Validation/Validation dataset.xlsx
+++ b/Validation/Validation dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luis\Desktop\Universidad\Q6\PE\Trend-Analytics\Validation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9675969F-542B-41D2-A236-484E616078FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A446AE19-E213-4DA9-88A3-F8FA00C7000A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{51C03CC0-8AD4-4547-8F85-35A5BED8B5C2}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="641">
   <si>
     <t>POST</t>
   </si>
@@ -1839,9 +1839,6 @@
   </si>
   <si>
     <t>AA7913J33</t>
-  </si>
-  <si>
-    <t>AA1165FN05</t>
   </si>
   <si>
     <t>AA7277FN20</t>
@@ -1965,7 +1962,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2002,13 +1999,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2033,14 +2023,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -2360,8 +2349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ECB3A60-1523-433E-9BFD-A546DCB0940A}">
   <dimension ref="A1:E221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
-      <selection activeCell="D215" sqref="D215"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C208" sqref="C208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5798,11 +5787,11 @@
       <c r="C202" t="s">
         <v>601</v>
       </c>
-      <c r="D202" s="4" t="s">
+      <c r="D202" t="s">
+        <v>619</v>
+      </c>
+      <c r="E202" t="s">
         <v>602</v>
-      </c>
-      <c r="E202" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
@@ -5810,16 +5799,16 @@
         <v>599</v>
       </c>
       <c r="B203" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="C203" t="s">
         <v>604</v>
       </c>
-      <c r="C203" t="s">
+      <c r="D203" t="s">
         <v>605</v>
       </c>
-      <c r="D203" t="s">
+      <c r="E203" t="s">
         <v>606</v>
-      </c>
-      <c r="E203" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
@@ -5827,16 +5816,16 @@
         <v>599</v>
       </c>
       <c r="B204" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="C204" t="s">
+        <v>606</v>
+      </c>
+      <c r="D204" t="s">
         <v>608</v>
       </c>
-      <c r="C204" t="s">
-        <v>607</v>
-      </c>
-      <c r="D204" t="s">
+      <c r="E204" t="s">
         <v>609</v>
-      </c>
-      <c r="E204" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
@@ -5844,16 +5833,16 @@
         <v>599</v>
       </c>
       <c r="B205" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="C205" t="s">
         <v>611</v>
       </c>
-      <c r="C205" t="s">
-        <v>612</v>
-      </c>
       <c r="D205" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E205" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
@@ -5861,16 +5850,16 @@
         <v>599</v>
       </c>
       <c r="B206" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="C206" t="s">
         <v>613</v>
       </c>
-      <c r="C206" t="s">
+      <c r="D206" t="s">
         <v>614</v>
       </c>
-      <c r="D206" t="s">
-        <v>615</v>
-      </c>
       <c r="E206" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
@@ -5878,16 +5867,16 @@
         <v>599</v>
       </c>
       <c r="B207" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="C207" t="s">
         <v>616</v>
       </c>
-      <c r="C207" t="s">
+      <c r="D207" t="s">
+        <v>611</v>
+      </c>
+      <c r="E207" t="s">
         <v>617</v>
-      </c>
-      <c r="D207" t="s">
-        <v>612</v>
-      </c>
-      <c r="E207" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
@@ -5895,16 +5884,16 @@
         <v>599</v>
       </c>
       <c r="B208" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="C208" t="s">
         <v>619</v>
       </c>
-      <c r="C208" t="s">
+      <c r="D208" t="s">
         <v>620</v>
       </c>
-      <c r="D208" t="s">
+      <c r="E208" t="s">
         <v>621</v>
-      </c>
-      <c r="E208" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -5912,16 +5901,16 @@
         <v>599</v>
       </c>
       <c r="B209" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="C209" t="s">
+        <v>611</v>
+      </c>
+      <c r="D209" t="s">
+        <v>613</v>
+      </c>
+      <c r="E209" t="s">
         <v>623</v>
-      </c>
-      <c r="C209" t="s">
-        <v>612</v>
-      </c>
-      <c r="D209" t="s">
-        <v>614</v>
-      </c>
-      <c r="E209" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
@@ -5929,16 +5918,16 @@
         <v>599</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C210" t="s">
+        <v>613</v>
+      </c>
+      <c r="D210" t="s">
         <v>614</v>
       </c>
-      <c r="D210" t="s">
-        <v>615</v>
-      </c>
       <c r="E210" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -5946,16 +5935,16 @@
         <v>599</v>
       </c>
       <c r="B211" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="C211" t="s">
         <v>626</v>
       </c>
-      <c r="C211" t="s">
-        <v>627</v>
-      </c>
       <c r="D211" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E211" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
@@ -5963,16 +5952,16 @@
         <v>599</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C212" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D212" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E212" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -5980,16 +5969,16 @@
         <v>599</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C213" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D213" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E213" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
@@ -5997,16 +5986,16 @@
         <v>599</v>
       </c>
       <c r="B214" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="C214" t="s">
+        <v>621</v>
+      </c>
+      <c r="D214" t="s">
+        <v>619</v>
+      </c>
+      <c r="E214" t="s">
         <v>630</v>
-      </c>
-      <c r="C214" t="s">
-        <v>622</v>
-      </c>
-      <c r="D214" t="s">
-        <v>620</v>
-      </c>
-      <c r="E214" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
@@ -6014,16 +6003,16 @@
         <v>599</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C215" t="s">
-        <v>614</v>
-      </c>
-      <c r="D215" s="4" t="s">
+        <v>613</v>
+      </c>
+      <c r="D215" t="s">
+        <v>619</v>
+      </c>
+      <c r="E215" t="s">
         <v>602</v>
-      </c>
-      <c r="E215" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
@@ -6031,16 +6020,16 @@
         <v>599</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C216" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D216" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E216" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
@@ -6048,16 +6037,16 @@
         <v>599</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C217" t="s">
         <v>601</v>
       </c>
       <c r="D217" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E217" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
@@ -6065,16 +6054,16 @@
         <v>599</v>
       </c>
       <c r="B218" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="C218" t="s">
+        <v>619</v>
+      </c>
+      <c r="D218" t="s">
+        <v>620</v>
+      </c>
+      <c r="E218" t="s">
         <v>635</v>
-      </c>
-      <c r="C218" t="s">
-        <v>620</v>
-      </c>
-      <c r="D218" t="s">
-        <v>621</v>
-      </c>
-      <c r="E218" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
@@ -6082,16 +6071,16 @@
         <v>599</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C219" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D219" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E219" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
@@ -6099,16 +6088,16 @@
         <v>599</v>
       </c>
       <c r="B220" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="C220" t="s">
+        <v>616</v>
+      </c>
+      <c r="D220" t="s">
         <v>638</v>
       </c>
-      <c r="C220" t="s">
-        <v>617</v>
-      </c>
-      <c r="D220" t="s">
-        <v>639</v>
-      </c>
       <c r="E220" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
@@ -6116,16 +6105,16 @@
         <v>599</v>
       </c>
       <c r="B221" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="C221" t="s">
+        <v>606</v>
+      </c>
+      <c r="D221" t="s">
+        <v>608</v>
+      </c>
+      <c r="E221" t="s">
         <v>640</v>
-      </c>
-      <c r="C221" t="s">
-        <v>607</v>
-      </c>
-      <c r="D221" t="s">
-        <v>609</v>
-      </c>
-      <c r="E221" t="s">
-        <v>641</v>
       </c>
     </row>
   </sheetData>
